--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -16,6 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">connections2!$A$2:$H$303</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1799,11 +1800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212674432"/>
-        <c:axId val="212675968"/>
+        <c:axId val="217904640"/>
+        <c:axId val="217906176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212674432"/>
+        <c:axId val="217904640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,12 +1814,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212675968"/>
+        <c:crossAx val="217906176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212675968"/>
+        <c:axId val="217906176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212674432"/>
+        <c:crossAx val="217904640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="516" windowWidth="16188" windowHeight="5376" activeTab="2"/>
+    <workbookView xWindow="132" yWindow="516" windowWidth="16188" windowHeight="5376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="connections2" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">connections2!$A$2:$H$303</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1800,11 +1799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217904640"/>
-        <c:axId val="217906176"/>
+        <c:axId val="219289472"/>
+        <c:axId val="219291008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217904640"/>
+        <c:axId val="219289472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,12 +1813,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217906176"/>
+        <c:crossAx val="219291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217906176"/>
+        <c:axId val="219291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +1829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217904640"/>
+        <c:crossAx val="219289472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10365,8 +10364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10449,7 +10448,7 @@
         <v>KPC</v>
       </c>
       <c r="D2">
-        <f>E2+F2</f>
+        <f t="shared" ref="D2:D66" si="0">E2+F2</f>
         <v>150</v>
       </c>
       <c r="E2">
@@ -10517,7 +10516,7 @@
         <v>U2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">E3+F3</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E3">
@@ -18703,7 +18702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -10365,7 +10365,7 @@
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10517,35 +10517,35 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E3">
         <v>80</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G3">
         <v>501</v>
       </c>
       <c r="H3">
         <f>IF(M3*D3^3+N3*D3^2+O3*D3+P3&lt;0,0,M3*D3^3+N3*D3^2+O3*D3+P3)</f>
-        <v>734.39999999999964</v>
+        <v>190.39999999999964</v>
       </c>
       <c r="I3">
         <f>H3*G3/1000</f>
-        <v>367.93439999999981</v>
+        <v>95.390399999999815</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="1">IF(Q3*D3^3+R3*D3^2+S3*D3+T3&lt;0,0,Q3*D3^3+R3*D3^2+S3*D3+T3)</f>
-        <v>322.08</v>
+        <v>360.03</v>
       </c>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3">
         <f>K3-J3</f>
-        <v>177.92000000000002</v>
+        <v>139.97000000000003</v>
       </c>
       <c r="M3">
         <v>-1.3333333333333263E-4</v>
@@ -18756,11 +18756,11 @@
       </c>
       <c r="B3" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A3,Wells!$H$2:$H$200)</f>
-        <v>21297.599999999999</v>
+        <v>20753.599999999999</v>
       </c>
       <c r="C3" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A3,Wells!$I$2:$I$200)</f>
-        <v>11579.284799999996</v>
+        <v>11306.740799999996</v>
       </c>
       <c r="D3" s="35">
         <v>79</v>
@@ -18796,11 +18796,11 @@
       </c>
       <c r="B5" s="36">
         <f>SUM(B2:B4)</f>
-        <v>88172.800000000047</v>
+        <v>87628.800000000047</v>
       </c>
       <c r="C5" s="36">
         <f>SUM(C2:C4)</f>
-        <v>49534.563199999975</v>
+        <v>49262.019199999966</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5">

--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -1799,11 +1799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219289472"/>
-        <c:axId val="219291008"/>
+        <c:axId val="205723520"/>
+        <c:axId val="205725056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219289472"/>
+        <c:axId val="205723520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,12 +1813,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219291008"/>
+        <c:crossAx val="205725056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219291008"/>
+        <c:axId val="205725056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,13 +1829,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219289472"/>
+        <c:crossAx val="205723520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2176,7 +2177,7 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10365,7 +10366,7 @@
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10441,11 +10442,11 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" t="str">
         <f>IF(B2="",VLOOKUP(A2,connections2!$A$3:$I$378,3,FALSE),VLOOKUP(B2,connections2!$G$3:$I$378,3,FALSE))</f>
-        <v>KPC</v>
+        <v>U2</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D66" si="0">E2+F2</f>
@@ -10517,35 +10518,35 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>80</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>501</v>
       </c>
       <c r="H3">
         <f>IF(M3*D3^3+N3*D3^2+O3*D3+P3&lt;0,0,M3*D3^3+N3*D3^2+O3*D3+P3)</f>
-        <v>190.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I3">
         <f>H3*G3/1000</f>
-        <v>95.390399999999815</v>
+        <v>323.84639999999973</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="1">IF(Q3*D3^3+R3*D3^2+S3*D3+T3&lt;0,0,Q3*D3^3+R3*D3^2+S3*D3+T3)</f>
-        <v>360.03</v>
+        <v>341.73</v>
       </c>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3">
         <f>K3-J3</f>
-        <v>139.97000000000003</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M3">
         <v>-1.3333333333333263E-4</v>
@@ -10585,35 +10586,35 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>80</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>502</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H66" si="2">IF(M4*D4^3+N4*D4^2+O4*D4+P4&lt;0,0,M4*D4^3+N4*D4^2+O4*D4+P4)</f>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I66" si="3">H4*G4/1000</f>
-        <v>368.66879999999981</v>
+        <v>324.49279999999976</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K4">
         <v>500</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L66" si="4">K4-J4</f>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M4">
         <v>-1.3333333333333263E-4</v>
@@ -10653,35 +10654,35 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>80</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>503</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>369.40319999999986</v>
+        <v>325.13919999999979</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K5">
         <v>500</v>
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M5">
         <v>-1.3333333333333263E-4</v>
@@ -10718,35 +10719,35 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>130</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>504</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>498.39999999999952</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>325.78559999999976</v>
+        <v>251.19359999999978</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>356.88</v>
       </c>
       <c r="K6">
         <v>500</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>143.12</v>
       </c>
       <c r="M6">
         <v>-1.3333333333333263E-4</v>
@@ -10786,35 +10787,35 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>80</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>505</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>370.87199999999984</v>
+        <v>326.43199999999979</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K7">
         <v>500</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M7">
         <v>-1.3333333333333263E-4</v>
@@ -10851,35 +10852,35 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>130</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>506</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>498.39999999999952</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>327.07839999999976</v>
+        <v>252.19039999999976</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>356.88</v>
       </c>
       <c r="K8">
         <v>500</v>
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>143.12</v>
       </c>
       <c r="M8">
         <v>-1.3333333333333263E-4</v>
@@ -10916,35 +10917,35 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E9">
         <v>130</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>507</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>498.39999999999952</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>327.72479999999973</v>
+        <v>252.68879999999976</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>356.88</v>
       </c>
       <c r="K9">
         <v>500</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>143.12</v>
       </c>
       <c r="M9">
         <v>-1.3333333333333263E-4</v>
@@ -10981,35 +10982,35 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>130</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>508</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>498.39999999999952</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>328.37119999999976</v>
+        <v>253.18719999999976</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>356.88</v>
       </c>
       <c r="K10">
         <v>500</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>143.12</v>
       </c>
       <c r="M10">
         <v>-1.3333333333333263E-4</v>
@@ -11049,35 +11050,35 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>80</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>509</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>373.80959999999982</v>
+        <v>329.01759999999973</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K11">
         <v>500</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M11">
         <v>-1.3333333333333263E-4</v>
@@ -11117,35 +11118,35 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>510</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>374.54399999999981</v>
+        <v>329.66399999999976</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K12">
         <v>500</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M12">
         <v>-1.3333333333333263E-4</v>
@@ -11185,35 +11186,35 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>80</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>511</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>375.27839999999981</v>
+        <v>330.31039999999973</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K13">
         <v>500</v>
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M13">
         <v>-1.3333333333333263E-4</v>
@@ -11253,35 +11254,35 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>80</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>512</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>376.0127999999998</v>
+        <v>330.95679999999976</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K14">
         <v>500</v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M14">
         <v>-1.3333333333333263E-4</v>
@@ -11321,35 +11322,35 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>80</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>513</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>376.74719999999985</v>
+        <v>331.60319999999979</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K15">
         <v>500</v>
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M15">
         <v>-1.3333333333333263E-4</v>
@@ -11389,35 +11390,35 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>80</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>514</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>377.48159999999979</v>
+        <v>332.24959999999976</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K16">
         <v>500</v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M16">
         <v>-1.3333333333333263E-4</v>
@@ -11454,35 +11455,35 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>80</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>515</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>378.21599999999984</v>
+        <v>332.89599999999979</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>341.73</v>
       </c>
       <c r="K17">
         <v>500</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M17">
         <v>-1.3333333333333263E-4</v>
@@ -18736,18 +18737,18 @@
       </c>
       <c r="B2" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A2,Wells!$H$2:$H$200)</f>
-        <v>52008.000000000058</v>
+        <v>51320.000000000058</v>
       </c>
       <c r="C2" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A2,Wells!$I$2:$I$200)</f>
-        <v>30065.966399999983</v>
+        <v>29721.702399999984</v>
       </c>
       <c r="D2" s="35">
         <v>130</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Wells!$C$2:$C$200,A2)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -18756,18 +18757,18 @@
       </c>
       <c r="B3" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A3,Wells!$H$2:$H$200)</f>
-        <v>20753.599999999999</v>
+        <v>21017.599999999999</v>
       </c>
       <c r="C3" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A3,Wells!$I$2:$I$200)</f>
-        <v>11306.740799999996</v>
+        <v>11431.188799999994</v>
       </c>
       <c r="D3" s="35">
         <v>79</v>
       </c>
       <c r="E3">
         <f>COUNTIF(Wells!$C$2:$C$200,A3)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -18776,11 +18777,11 @@
       </c>
       <c r="B4" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A4,Wells!$H$2:$H$200)</f>
-        <v>14867.19999999999</v>
+        <v>14275.19999999999</v>
       </c>
       <c r="C4" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A4,Wells!$I$2:$I$200)</f>
-        <v>7889.3119999999944</v>
+        <v>7589.6119999999946</v>
       </c>
       <c r="D4" s="35">
         <v>130</v>
@@ -18796,11 +18797,11 @@
       </c>
       <c r="B5" s="36">
         <f>SUM(B2:B4)</f>
-        <v>87628.800000000047</v>
+        <v>86612.800000000047</v>
       </c>
       <c r="C5" s="36">
         <f>SUM(C2:C4)</f>
-        <v>49262.019199999966</v>
+        <v>48742.50319999997</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5">

--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -1799,11 +1799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205723520"/>
-        <c:axId val="205725056"/>
+        <c:axId val="220993408"/>
+        <c:axId val="220994944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205723520"/>
+        <c:axId val="220993408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,12 +1813,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205725056"/>
+        <c:crossAx val="220994944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205725056"/>
+        <c:axId val="220994944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205723520"/>
+        <c:crossAx val="220993408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10366,7 +10366,7 @@
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10442,43 +10442,43 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="str">
         <f>IF(B2="",VLOOKUP(A2,connections2!$A$3:$I$378,3,FALSE),VLOOKUP(B2,connections2!$G$3:$I$378,3,FALSE))</f>
-        <v>U2</v>
+        <v>KPC</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D66" si="0">E2+F2</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>500</v>
       </c>
       <c r="H2">
         <f>IF(M2*D2^3+N2*D2^2+O2*D2+P2&lt;0,0,M2*D2^3+N2*D2^2+O2*D2+P2)</f>
-        <v>599.99999999999932</v>
+        <v>699.99999999999966</v>
       </c>
       <c r="I2">
         <f>H2*G2/1000</f>
-        <v>299.99999999999966</v>
+        <v>349.99999999999983</v>
       </c>
       <c r="J2">
         <f>IF(Q2*D2^3+R2*D2^2+S2*D2+T2&lt;0,0,Q2*D2^3+R2*D2^2+S2*D2+T2)</f>
-        <v>348.75</v>
+        <v>330</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
       <c r="L2">
         <f>K2-J2</f>
-        <v>151.25</v>
+        <v>170</v>
       </c>
       <c r="M2">
         <v>-1.3333333333333263E-4</v>
@@ -10518,35 +10518,35 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>80</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>501</v>
       </c>
       <c r="H3">
         <f>IF(M3*D3^3+N3*D3^2+O3*D3+P3&lt;0,0,M3*D3^3+N3*D3^2+O3*D3+P3)</f>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I3">
         <f>H3*G3/1000</f>
-        <v>323.84639999999973</v>
+        <v>367.93439999999981</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="1">IF(Q3*D3^3+R3*D3^2+S3*D3+T3&lt;0,0,Q3*D3^3+R3*D3^2+S3*D3+T3)</f>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3">
         <f>K3-J3</f>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M3">
         <v>-1.3333333333333263E-4</v>
@@ -10578,43 +10578,43 @@
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" t="str">
         <f>IF(B4="",VLOOKUP(A4,connections2!$A$3:$I$378,3,FALSE),VLOOKUP(B4,connections2!$G$3:$I$378,3,FALSE))</f>
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>80</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>502</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H66" si="2">IF(M4*D4^3+N4*D4^2+O4*D4+P4&lt;0,0,M4*D4^3+N4*D4^2+O4*D4+P4)</f>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I66" si="3">H4*G4/1000</f>
-        <v>324.49279999999976</v>
+        <v>368.66879999999981</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K4">
         <v>500</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L66" si="4">K4-J4</f>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M4">
         <v>-1.3333333333333263E-4</v>
@@ -10654,35 +10654,35 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>80</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>503</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>325.13919999999979</v>
+        <v>369.40319999999986</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K5">
         <v>500</v>
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M5">
         <v>-1.3333333333333263E-4</v>
@@ -10719,35 +10719,35 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>130</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>504</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>498.39999999999952</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>251.19359999999978</v>
+        <v>325.78559999999976</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>356.88</v>
+        <v>341.73</v>
       </c>
       <c r="K6">
         <v>500</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>143.12</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M6">
         <v>-1.3333333333333263E-4</v>
@@ -10787,35 +10787,35 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>80</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>505</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>326.43199999999979</v>
+        <v>370.87199999999984</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K7">
         <v>500</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M7">
         <v>-1.3333333333333263E-4</v>
@@ -10852,35 +10852,35 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>130</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>506</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>498.39999999999952</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>252.19039999999976</v>
+        <v>327.07839999999976</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>356.88</v>
+        <v>341.73</v>
       </c>
       <c r="K8">
         <v>500</v>
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>143.12</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M8">
         <v>-1.3333333333333263E-4</v>
@@ -10917,35 +10917,35 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>130</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>507</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>498.39999999999952</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>252.68879999999976</v>
+        <v>327.72479999999973</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>356.88</v>
+        <v>341.73</v>
       </c>
       <c r="K9">
         <v>500</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>143.12</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M9">
         <v>-1.3333333333333263E-4</v>
@@ -10982,35 +10982,35 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>130</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>508</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>498.39999999999952</v>
+        <v>646.39999999999952</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>253.18719999999976</v>
+        <v>328.37119999999976</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>356.88</v>
+        <v>341.73</v>
       </c>
       <c r="K10">
         <v>500</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>143.12</v>
+        <v>158.26999999999998</v>
       </c>
       <c r="M10">
         <v>-1.3333333333333263E-4</v>
@@ -11050,35 +11050,35 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>80</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>509</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>329.01759999999973</v>
+        <v>373.80959999999982</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K11">
         <v>500</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M11">
         <v>-1.3333333333333263E-4</v>
@@ -11118,35 +11118,35 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>510</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>329.66399999999976</v>
+        <v>374.54399999999981</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K12">
         <v>500</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M12">
         <v>-1.3333333333333263E-4</v>
@@ -11186,35 +11186,35 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>80</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>511</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>330.31039999999973</v>
+        <v>375.27839999999981</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K13">
         <v>500</v>
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M13">
         <v>-1.3333333333333263E-4</v>
@@ -11254,35 +11254,35 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>80</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>512</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>330.95679999999976</v>
+        <v>376.0127999999998</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K14">
         <v>500</v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M14">
         <v>-1.3333333333333263E-4</v>
@@ -11322,35 +11322,35 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>80</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>513</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>331.60319999999979</v>
+        <v>376.74719999999985</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K15">
         <v>500</v>
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M15">
         <v>-1.3333333333333263E-4</v>
@@ -11390,35 +11390,35 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>80</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>514</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>332.24959999999976</v>
+        <v>377.48159999999979</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K16">
         <v>500</v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M16">
         <v>-1.3333333333333263E-4</v>
@@ -11455,35 +11455,35 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>80</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>515</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>734.39999999999964</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>332.89599999999979</v>
+        <v>378.21599999999984</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>322.08</v>
       </c>
       <c r="K17">
         <v>500</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>177.92000000000002</v>
       </c>
       <c r="M17">
         <v>-1.3333333333333263E-4</v>
@@ -18737,18 +18737,18 @@
       </c>
       <c r="B2" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A2,Wells!$H$2:$H$200)</f>
-        <v>51320.000000000058</v>
+        <v>52108.000000000058</v>
       </c>
       <c r="C2" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A2,Wells!$I$2:$I$200)</f>
-        <v>29721.702399999984</v>
+        <v>30115.966399999983</v>
       </c>
       <c r="D2" s="35">
         <v>130</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Wells!$C$2:$C$200,A2)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -18757,18 +18757,18 @@
       </c>
       <c r="B3" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A3,Wells!$H$2:$H$200)</f>
-        <v>21017.599999999999</v>
+        <v>20563.199999999997</v>
       </c>
       <c r="C3" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A3,Wells!$I$2:$I$200)</f>
-        <v>11431.188799999994</v>
+        <v>11210.615999999996</v>
       </c>
       <c r="D3" s="35">
         <v>79</v>
       </c>
       <c r="E3">
         <f>COUNTIF(Wells!$C$2:$C$200,A3)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -18777,18 +18777,18 @@
       </c>
       <c r="B4" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A4,Wells!$H$2:$H$200)</f>
-        <v>14275.19999999999</v>
+        <v>15601.599999999991</v>
       </c>
       <c r="C4" s="35">
         <f>SUMIF(Wells!$C$2:$C$200,A4,Wells!$I$2:$I$200)</f>
-        <v>7589.6119999999946</v>
+        <v>8257.9807999999939</v>
       </c>
       <c r="D4" s="35">
         <v>130</v>
       </c>
       <c r="E4">
         <f>COUNTIF(Wells!$C$2:$C$200,A4)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -18797,11 +18797,11 @@
       </c>
       <c r="B5" s="36">
         <f>SUM(B2:B4)</f>
-        <v>86612.800000000047</v>
+        <v>88272.800000000047</v>
       </c>
       <c r="C5" s="36">
         <f>SUM(C2:C4)</f>
-        <v>48742.50319999997</v>
+        <v>49584.563199999975</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5">

--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -1799,11 +1799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220993408"/>
-        <c:axId val="220994944"/>
+        <c:axId val="206841728"/>
+        <c:axId val="206843264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220993408"/>
+        <c:axId val="206841728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,12 +1813,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220994944"/>
+        <c:crossAx val="206843264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220994944"/>
+        <c:axId val="206843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,14 +1829,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220993408"/>
+        <c:crossAx val="206841728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>

--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="516" windowWidth="16188" windowHeight="5376" activeTab="1"/>
+    <workbookView xWindow="135" yWindow="510" windowWidth="16185" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="connections2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">connections2!$A$2:$H$303</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1709,7 +1709,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1799,11 +1799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206841728"/>
-        <c:axId val="206843264"/>
+        <c:axId val="247890304"/>
+        <c:axId val="247891840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206841728"/>
+        <c:axId val="247890304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,12 +1813,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206843264"/>
+        <c:crossAx val="247891840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206843264"/>
+        <c:axId val="247891840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206841728"/>
+        <c:crossAx val="247890304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2179,17 +2179,17 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="H1" s="42"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2233,7 +2233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>15</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>15</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>116</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>116</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>116</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>117</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>117</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>37</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>37</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>153</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>153</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>153</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>162</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>162</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>162</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>51</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>51</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>51</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>203</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>203</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>203</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>205</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>205</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>205</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>209</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>209</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>216</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>216</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>216</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>216</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>220</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>220</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>220</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>220</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>223</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>231</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>231</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>231</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>231</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>233</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>233</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>239</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>239</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>239</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>239</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>243</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>243</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>243</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>243</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>306</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>306</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>306</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>308</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>308</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>310</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>313</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>314</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>319</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>320</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>322</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>323</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>324</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>326</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>328</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>340</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>340</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>340</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>346</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>347</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>348</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>351</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>408</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>408</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>419</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>419</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>420</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>420</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>423</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>423</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>430</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>430</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>430</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>432</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>437</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <v>437</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>437</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>439</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>439</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>439</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>442</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>442</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>442</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
         <v>446</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>121</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>121</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>452</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>452</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="16">
         <v>605</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>710</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <v>710</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>710</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>710</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <v>711</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>713</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
         <v>713</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>713</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>133</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>133</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
         <v>803</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="15">
         <v>803</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>803</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>806</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>806</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <v>817</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>818</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <v>818</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <v>818</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>822</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16">
         <v>905</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>910</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>910</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>910</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>912</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <v>912</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>912</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>148</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>148</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>148</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>918</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <v>918</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
         <v>918</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>920</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>920</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>157</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>157</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>5488</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <v>5488</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>5488</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>5790</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>5790</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
         <v>5887</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <v>5887</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>5887</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>9805</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <v>9805</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>9805</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>9806</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>9806</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>9807</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
         <v>9807</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <v>9807</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>9807</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>9808</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
         <v>9808</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>9808</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="16">
         <v>9809</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
         <v>180</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>180</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>9811</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <v>9811</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
         <v>9811</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>9812</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
         <v>9812</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9">
         <v>9812</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>189</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>189</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>189</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>193</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>9815</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <v>9815</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
         <v>9815</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
         <v>197</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="22" t="s">
         <v>197</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="22" t="s">
         <v>197</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="22" t="s">
         <v>197</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="22" t="s">
         <v>197</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
         <v>197</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>9817</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <v>9817</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <v>9817</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
         <v>9817</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>9818</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
         <v>9818</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9">
         <v>9818</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>9819</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <v>9819</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
         <v>9819</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>9820</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
         <v>9820</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="15">
         <v>9820</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>9821</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
         <v>9821</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="15">
         <v>9821</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
         <v>9821</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>9822</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="15">
         <v>9822</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>9822</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>9823</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="15">
         <v>9823</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>9823</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>9824</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>9824</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="14">
         <v>9825</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="15">
         <v>9825</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
         <v>9825</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>9826</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <v>9826</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>9826</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>9827</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
         <v>9827</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
         <v>9827</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="16">
         <v>9828</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>9829</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <v>9829</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
         <v>9829</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>9830</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="15">
         <v>9830</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
         <v>9830</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>9831</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="15">
         <v>9831</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>9831</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>9832</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="15">
         <v>9832</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
         <v>9832</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="16">
         <v>9833</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
         <v>239</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
         <v>239</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
         <v>239</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
         <v>239</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
         <v>239</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>239</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
         <v>240</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
         <v>240</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>240</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>9836</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
         <v>9836</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>9837</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="15">
         <v>9837</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <v>9837</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>9838</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <v>9838</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
         <v>9838</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="24">
         <v>9839</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="27">
         <v>9839</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="27">
         <v>9839</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>9840</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="15">
         <v>9840</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="15">
         <v>9840</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="14">
         <v>9841</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="15">
         <v>9841</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>9841</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
         <v>250</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
         <v>250</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>250</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="14">
         <v>9843</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="15">
         <v>9843</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9">
         <v>9843</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
         <v>251</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
         <v>251</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>251</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>9845</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9">
         <v>9845</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>9846</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="16">
         <v>9847</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="16">
         <v>9848</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="16">
         <v>9849</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>9850</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="15">
         <v>9850</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="15">
         <v>9850</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9">
         <v>9850</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="14">
         <v>9851</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="15">
         <v>9851</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="15">
         <v>9851</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="14">
         <v>9852</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="15">
         <v>9852</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9">
         <v>9852</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="14">
         <v>9853</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="15">
         <v>9853</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9">
         <v>9853</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
         <v>259</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>259</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="s">
         <v>262</v>
       </c>
@@ -10364,17 +10364,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>263</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>15</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>116</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>117</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>121</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>145</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>152</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>153</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>162</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>203</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>205</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>209</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>214</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>216</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>220</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>223</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>231</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>233</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>239</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>243</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>306</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>308</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>310</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>313</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>314</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>319</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>320</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>322</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>323</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>324</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>326</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>328</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>340</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>346</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>347</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>348</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>351</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>408</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>419</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>420</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>430</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>432</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>437</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>439</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>442</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>446</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>452</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>605</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>710</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>711</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>713</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>803</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>806</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>817</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>818</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>822</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>905</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>910</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>912</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>918</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>920</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>157</v>
       </c>
@@ -15047,7 +15047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5488</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5790</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5887</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9805</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9806</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9807</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9808</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9809</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>180</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9811</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9812</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9815</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>197</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9817</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9818</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9819</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9820</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9821</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9822</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9823</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9824</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9825</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9826</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9827</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9828</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9829</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9830</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9831</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9832</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9833</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>240</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9836</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9837</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>9838</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9839</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>9840</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9841</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>250</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9843</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>251</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>9845</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>9846</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9847</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>9848</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>9849</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9850</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9851</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>9852</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>9853</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>259</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>262</v>
       </c>
@@ -18706,11 +18706,11 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -18821,7 +18821,7 @@
       <selection activeCell="E7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2">

--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="516" windowWidth="16188" windowHeight="5376" activeTab="1"/>
+    <workbookView xWindow="135" yWindow="510" windowWidth="16185" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="connections2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">connections2!$A$2:$H$303</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -347,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="306">
   <si>
     <t>WELL</t>
   </si>
@@ -1272,10 +1272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1604,25 +1604,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1692,8 +1692,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1933,7 +1933,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2023,11 +2023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213268736"/>
-        <c:axId val="213278720"/>
+        <c:axId val="76448512"/>
+        <c:axId val="76450048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213268736"/>
+        <c:axId val="76448512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,12 +2037,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213278720"/>
+        <c:crossAx val="76450048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213278720"/>
+        <c:axId val="76450048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213268736"/>
+        <c:crossAx val="76448512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2403,17 +2403,17 @@
       <selection activeCell="F328" sqref="F328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="H1" s="60"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2457,7 +2457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>15</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>15</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>15</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>116</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>116</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>116</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>117</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>36</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>36</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>153</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>153</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>162</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>162</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>50</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>50</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>203</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>203</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>205</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>205</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>209</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>216</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>216</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>220</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>220</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>231</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>231</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>239</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>239</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>243</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>243</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>306</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>340</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>430</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>437</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>437</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>439</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
         <v>439</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="30">
         <v>442</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>452</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="30">
         <v>710</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="30">
         <v>710</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>713</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="22">
         <v>806</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
         <v>818</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>818</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="30">
         <v>910</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
         <v>912</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
         <v>147</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="22">
         <v>918</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
         <v>918</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
         <v>5488</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="22">
         <v>5790</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="22">
         <v>5887</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="30">
         <v>5887</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="22">
         <v>9805</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="30">
         <v>9805</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <v>9807</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="30">
         <v>9807</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="30">
         <v>9808</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
         <v>9808</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
         <v>179</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
         <v>9811</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="30">
         <v>9812</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="22" t="s">
         <v>188</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="30" t="s">
         <v>188</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="22">
         <v>9815</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
         <v>9815</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="30">
         <v>9815</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="41" t="s">
         <v>196</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
         <v>196</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="40" t="s">
         <v>196</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="40" t="s">
         <v>196</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="22">
         <v>9817</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="30">
         <v>9817</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="22">
         <v>9818</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="30">
         <v>9818</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="22">
         <v>9819</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="30">
         <v>9819</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="22">
         <v>9820</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="30">
         <v>9820</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="22">
         <v>9821</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="30">
         <v>9821</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="30">
         <v>9822</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="30">
         <v>9823</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="22">
         <v>9825</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="30">
         <v>9825</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="22">
         <v>9826</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="30">
         <v>9826</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="22">
         <v>9827</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="30">
         <v>9827</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="22">
         <v>9829</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="22">
         <v>9830</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="30">
         <v>9830</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="22">
         <v>9831</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="30">
         <v>9831</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="22">
         <v>9832</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="22" t="s">
         <v>238</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="30" t="s">
         <v>238</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="30" t="s">
         <v>238</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="30" t="s">
         <v>238</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="22" t="s">
         <v>239</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="30" t="s">
         <v>239</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="22">
         <v>9836</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="30">
         <v>9837</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="30">
         <v>9838</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="48">
         <v>9839</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="30">
         <v>9840</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="30">
         <v>9841</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="22">
         <v>9843</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="30">
         <v>9843</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="30" t="s">
         <v>250</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="30">
         <v>9850</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="22">
         <v>9851</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="30">
         <v>9851</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="22">
         <v>9852</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="30">
         <v>9852</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="22">
         <v>9853</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="30">
         <v>9853</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="22">
         <v>9854</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="30">
         <v>9854</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="22">
         <v>9855</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="30">
         <v>9855</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="26">
         <v>9856</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="22" t="s">
         <v>258</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="26" t="s">
         <v>258</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="38" t="s">
         <v>261</v>
       </c>
@@ -11082,19 +11082,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>262</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>15</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>116</v>
       </c>
@@ -11360,7 +11361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>117</v>
       </c>
@@ -11428,7 +11429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>121</v>
       </c>
@@ -11493,7 +11494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -11561,7 +11562,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -11626,7 +11627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>145</v>
       </c>
@@ -11691,7 +11692,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>152</v>
       </c>
@@ -11756,7 +11757,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>153</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>162</v>
       </c>
@@ -11892,7 +11893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>203</v>
       </c>
@@ -12028,7 +12029,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>205</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>209</v>
       </c>
@@ -12164,7 +12165,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>214</v>
       </c>
@@ -12229,7 +12230,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>216</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>220</v>
       </c>
@@ -12365,7 +12366,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>223</v>
       </c>
@@ -12430,7 +12431,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>231</v>
       </c>
@@ -12498,7 +12499,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>233</v>
       </c>
@@ -12566,7 +12567,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>239</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>243</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>306</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>308</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>310</v>
       </c>
@@ -12903,7 +12904,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>313</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>314</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>319</v>
       </c>
@@ -13098,7 +13099,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>320</v>
       </c>
@@ -13163,7 +13164,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>322</v>
       </c>
@@ -13228,7 +13229,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>323</v>
       </c>
@@ -13293,7 +13294,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>324</v>
       </c>
@@ -13358,7 +13359,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>326</v>
       </c>
@@ -13423,7 +13424,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>328</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>340</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>346</v>
       </c>
@@ -13621,7 +13622,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>347</v>
       </c>
@@ -13686,7 +13687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>348</v>
       </c>
@@ -13751,7 +13752,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>351</v>
       </c>
@@ -13816,7 +13817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>408</v>
       </c>
@@ -13884,7 +13885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>419</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>420</v>
       </c>
@@ -14020,7 +14021,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>423</v>
       </c>
@@ -14088,7 +14089,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>430</v>
       </c>
@@ -14156,7 +14157,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>432</v>
       </c>
@@ -14221,7 +14222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>437</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>439</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>442</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>446</v>
       </c>
@@ -14490,7 +14491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -14558,7 +14559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>452</v>
       </c>
@@ -14626,7 +14627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>605</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>710</v>
       </c>
@@ -14759,7 +14760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>711</v>
       </c>
@@ -14824,7 +14825,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>713</v>
       </c>
@@ -14892,7 +14893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -14960,7 +14961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>803</v>
       </c>
@@ -15028,7 +15029,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>806</v>
       </c>
@@ -15096,7 +15097,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>817</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>818</v>
       </c>
@@ -15229,7 +15230,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>822</v>
       </c>
@@ -15294,7 +15295,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>905</v>
       </c>
@@ -15359,7 +15360,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>910</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>912</v>
       </c>
@@ -15495,7 +15496,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>918</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>920</v>
       </c>
@@ -15699,7 +15700,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -15767,7 +15768,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5488</v>
       </c>
@@ -15835,7 +15836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5790</v>
       </c>
@@ -15903,7 +15904,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5887</v>
       </c>
@@ -15971,7 +15972,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9805</v>
       </c>
@@ -16039,7 +16040,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9806</v>
       </c>
@@ -16107,7 +16108,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9807</v>
       </c>
@@ -16175,7 +16176,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9808</v>
       </c>
@@ -16243,7 +16244,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9809</v>
       </c>
@@ -16308,7 +16309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -16376,7 +16377,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9811</v>
       </c>
@@ -16444,7 +16445,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9812</v>
       </c>
@@ -16512,7 +16513,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -16580,7 +16581,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>192</v>
       </c>
@@ -16645,7 +16646,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9815</v>
       </c>
@@ -16713,7 +16714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>196</v>
       </c>
@@ -16781,7 +16782,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9817</v>
       </c>
@@ -16849,7 +16850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9818</v>
       </c>
@@ -16917,7 +16918,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9819</v>
       </c>
@@ -16985,7 +16986,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9820</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9821</v>
       </c>
@@ -17121,7 +17122,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9822</v>
       </c>
@@ -17189,7 +17190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9823</v>
       </c>
@@ -17257,7 +17258,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9824</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9825</v>
       </c>
@@ -17393,7 +17394,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9826</v>
       </c>
@@ -17461,7 +17462,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9827</v>
       </c>
@@ -17529,7 +17530,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9828</v>
       </c>
@@ -17594,7 +17595,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9829</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9830</v>
       </c>
@@ -17730,7 +17731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9831</v>
       </c>
@@ -17798,7 +17799,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9832</v>
       </c>
@@ -17866,7 +17867,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9833</v>
       </c>
@@ -17931,7 +17932,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>238</v>
       </c>
@@ -17999,7 +18000,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -18067,7 +18068,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9836</v>
       </c>
@@ -18135,7 +18136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9837</v>
       </c>
@@ -18203,7 +18204,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>9838</v>
       </c>
@@ -18271,7 +18272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9839</v>
       </c>
@@ -18339,7 +18340,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>9840</v>
       </c>
@@ -18407,7 +18408,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9841</v>
       </c>
@@ -18475,7 +18476,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>249</v>
       </c>
@@ -18543,7 +18544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9843</v>
       </c>
@@ -18611,7 +18612,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>250</v>
       </c>
@@ -18679,7 +18680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>9845</v>
       </c>
@@ -18747,7 +18748,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>9846</v>
       </c>
@@ -18812,9 +18813,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9847</v>
+      </c>
+      <c r="B116" t="s">
+        <v>298</v>
       </c>
       <c r="C116" t="str">
         <f>IF(B116="",VLOOKUP(A116,connections2!$A$3:$I$378,3,FALSE),VLOOKUP(B116,connections2!$G$3:$I$378,3,FALSE))</f>
@@ -18877,7 +18881,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>9848</v>
       </c>
@@ -18942,7 +18946,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>9849</v>
       </c>
@@ -19007,7 +19011,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9850</v>
       </c>
@@ -19075,7 +19079,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9851</v>
       </c>
@@ -19143,7 +19147,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>9852</v>
       </c>
@@ -19211,7 +19215,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>9853</v>
       </c>
@@ -19279,7 +19283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -19347,7 +19351,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>261</v>
       </c>
@@ -19412,7 +19416,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>9854</v>
       </c>
@@ -19480,7 +19484,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>9855</v>
       </c>
@@ -19548,9 +19552,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9856</v>
+      </c>
+      <c r="B127" t="s">
+        <v>298</v>
       </c>
       <c r="C127" s="17" t="str">
         <f>IF(B127="",VLOOKUP(A127,connections2!$A$3:$I$378,3,FALSE),VLOOKUP(B127,connections2!$G$3:$I$378,3,FALSE))</f>
@@ -19621,17 +19628,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -19664,7 +19672,7 @@
         <v>31131.950399999987</v>
       </c>
       <c r="D2" s="13">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Wells!$C$2:$C$200,A2)</f>
@@ -19684,7 +19692,7 @@
         <v>11560.615999999996</v>
       </c>
       <c r="D3" s="13">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <f>COUNTIF(Wells!$C$2:$C$200,A3)</f>
@@ -19704,7 +19712,7 @@
         <v>8257.9807999999939</v>
       </c>
       <c r="D4" s="13">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <f>COUNTIF(Wells!$C$2:$C$200,A4)</f>
@@ -19736,13 +19744,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2">

--- a/lineup_app/static/xlgap.xlsx
+++ b/lineup_app/static/xlgap.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="510" windowWidth="16185" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="132" yWindow="516" windowWidth="16188" windowHeight="5376" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="connections2" sheetId="1" r:id="rId1"/>
     <sheet name="Wells" sheetId="2" r:id="rId2"/>
     <sheet name="Units" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Network" sheetId="5" r:id="rId5"/>
+    <sheet name="Network2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">connections2!$A$2:$H$303</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -347,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="314">
   <si>
     <t>WELL</t>
   </si>
@@ -1265,6 +1267,30 @@
   </si>
   <si>
     <t>9855_KPC_LT</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>p9815</t>
+  </si>
+  <si>
+    <t>p430</t>
+  </si>
+  <si>
+    <t>EOPS</t>
+  </si>
+  <si>
+    <t>EOPS pipe</t>
+  </si>
+  <si>
+    <t>RMSM pipe</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1359,7 +1385,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,8 +1404,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1556,6 +1600,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1604,25 +1718,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1654,7 +1768,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1692,8 +1806,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1828,6 +1942,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="Comma 2" xfId="15"/>
@@ -1933,7 +2056,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2023,11 +2146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76448512"/>
-        <c:axId val="76450048"/>
+        <c:axId val="328428160"/>
+        <c:axId val="328446336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76448512"/>
+        <c:axId val="328428160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,12 +2160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76450048"/>
+        <c:crossAx val="328446336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76450048"/>
+        <c:axId val="328446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,13 +2176,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76448512"/>
+        <c:crossAx val="328428160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2403,17 +2527,17 @@
       <selection activeCell="F328" sqref="F328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2554,7 @@
       <c r="H1" s="60"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2457,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>15</v>
       </c>
@@ -2486,7 +2610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>15</v>
       </c>
@@ -2538,7 +2662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>15</v>
       </c>
@@ -2563,7 +2687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
@@ -2619,7 +2743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>116</v>
       </c>
@@ -2671,7 +2795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>116</v>
       </c>
@@ -2725,7 +2849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>116</v>
       </c>
@@ -2752,7 +2876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>117</v>
       </c>
@@ -2860,7 +2984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>36</v>
       </c>
@@ -2889,7 +3013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>36</v>
       </c>
@@ -3043,7 +3167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>153</v>
       </c>
@@ -3072,7 +3196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>153</v>
       </c>
@@ -3151,7 +3275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>162</v>
       </c>
@@ -3178,7 +3302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>162</v>
       </c>
@@ -3259,7 +3383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>50</v>
       </c>
@@ -3288,7 +3412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>50</v>
       </c>
@@ -3367,7 +3491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>203</v>
       </c>
@@ -3396,7 +3520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>203</v>
       </c>
@@ -3475,7 +3599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>205</v>
       </c>
@@ -3504,7 +3628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>205</v>
       </c>
@@ -3583,7 +3707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>209</v>
       </c>
@@ -3691,7 +3815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>216</v>
       </c>
@@ -3718,7 +3842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>216</v>
       </c>
@@ -3799,7 +3923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>220</v>
       </c>
@@ -3828,7 +3952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>220</v>
       </c>
@@ -3932,7 +4056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>231</v>
       </c>
@@ -3959,7 +4083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>231</v>
       </c>
@@ -4096,7 +4220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>239</v>
       </c>
@@ -4123,7 +4247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>239</v>
       </c>
@@ -4204,7 +4328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>243</v>
       </c>
@@ -4233,7 +4357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>243</v>
       </c>
@@ -4312,7 +4436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>306</v>
       </c>
@@ -4701,7 +4825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>340</v>
       </c>
@@ -5096,7 +5220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>430</v>
       </c>
@@ -5204,7 +5328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>437</v>
       </c>
@@ -5260,7 +5384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>437</v>
       </c>
@@ -5337,7 +5461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>439</v>
       </c>
@@ -5364,7 +5488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
         <v>439</v>
       </c>
@@ -5443,7 +5567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="30">
         <v>442</v>
       </c>
@@ -5599,7 +5723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>452</v>
       </c>
@@ -5705,7 +5829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="30">
         <v>710</v>
       </c>
@@ -5732,7 +5856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="30">
         <v>710</v>
       </c>
@@ -5836,7 +5960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>713</v>
       </c>
@@ -6027,7 +6151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="22">
         <v>806</v>
       </c>
@@ -6135,7 +6259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
         <v>818</v>
       </c>
@@ -6162,7 +6286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>818</v>
       </c>
@@ -6293,7 +6417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="30">
         <v>910</v>
       </c>
@@ -6374,7 +6498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
         <v>912</v>
       </c>
@@ -6459,7 +6583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
         <v>147</v>
       </c>
@@ -6513,7 +6637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="22">
         <v>918</v>
       </c>
@@ -6569,7 +6693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
         <v>918</v>
       </c>
@@ -6723,7 +6847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
         <v>5488</v>
       </c>
@@ -6806,7 +6930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="22">
         <v>5790</v>
       </c>
@@ -6858,7 +6982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="22">
         <v>5887</v>
       </c>
@@ -6912,7 +7036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="30">
         <v>5887</v>
       </c>
@@ -6964,7 +7088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="22">
         <v>9805</v>
       </c>
@@ -7018,7 +7142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="30">
         <v>9805</v>
       </c>
@@ -7126,7 +7250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <v>9807</v>
       </c>
@@ -7180,7 +7304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="30">
         <v>9807</v>
       </c>
@@ -7261,7 +7385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="30">
         <v>9808</v>
       </c>
@@ -7288,7 +7412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
         <v>9808</v>
       </c>
@@ -7365,7 +7489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
         <v>179</v>
       </c>
@@ -7450,7 +7574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
         <v>9811</v>
       </c>
@@ -7531,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="30">
         <v>9812</v>
       </c>
@@ -7587,7 +7711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="22" t="s">
         <v>188</v>
       </c>
@@ -7614,7 +7738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="30" t="s">
         <v>188</v>
       </c>
@@ -7693,7 +7817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="22">
         <v>9815</v>
       </c>
@@ -7720,7 +7844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
         <v>9815</v>
       </c>
@@ -7747,7 +7871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="30">
         <v>9815</v>
       </c>
@@ -7799,7 +7923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="41" t="s">
         <v>196</v>
       </c>
@@ -7828,7 +7952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
         <v>196</v>
       </c>
@@ -7882,7 +8006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="40" t="s">
         <v>196</v>
       </c>
@@ -7909,7 +8033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="40" t="s">
         <v>196</v>
       </c>
@@ -7963,7 +8087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="22">
         <v>9817</v>
       </c>
@@ -7992,7 +8116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="30">
         <v>9817</v>
       </c>
@@ -8071,7 +8195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="22">
         <v>9818</v>
       </c>
@@ -8098,7 +8222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="30">
         <v>9818</v>
       </c>
@@ -8154,7 +8278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="22">
         <v>9819</v>
       </c>
@@ -8183,7 +8307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="30">
         <v>9819</v>
       </c>
@@ -8237,7 +8361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="22">
         <v>9820</v>
       </c>
@@ -8266,7 +8390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="30">
         <v>9820</v>
       </c>
@@ -8320,7 +8444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="22">
         <v>9821</v>
       </c>
@@ -8376,7 +8500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="30">
         <v>9821</v>
       </c>
@@ -8457,7 +8581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="30">
         <v>9822</v>
       </c>
@@ -8540,7 +8664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="30">
         <v>9823</v>
       </c>
@@ -8648,7 +8772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="22">
         <v>9825</v>
       </c>
@@ -8677,7 +8801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="30">
         <v>9825</v>
       </c>
@@ -8731,7 +8855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="22">
         <v>9826</v>
       </c>
@@ -8758,7 +8882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="30">
         <v>9826</v>
       </c>
@@ -8814,7 +8938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="22">
         <v>9827</v>
       </c>
@@ -8843,7 +8967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="30">
         <v>9827</v>
       </c>
@@ -8920,7 +9044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="22">
         <v>9829</v>
       </c>
@@ -9003,7 +9127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="22">
         <v>9830</v>
       </c>
@@ -9030,7 +9154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="30">
         <v>9830</v>
       </c>
@@ -9086,7 +9210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="22">
         <v>9831</v>
       </c>
@@ -9113,7 +9237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="30">
         <v>9831</v>
       </c>
@@ -9192,7 +9316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="22">
         <v>9832</v>
       </c>
@@ -9300,7 +9424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="22" t="s">
         <v>238</v>
       </c>
@@ -9329,7 +9453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="30" t="s">
         <v>238</v>
       </c>
@@ -9383,7 +9507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="30" t="s">
         <v>238</v>
       </c>
@@ -9410,7 +9534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="30" t="s">
         <v>238</v>
       </c>
@@ -9464,7 +9588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="22" t="s">
         <v>239</v>
       </c>
@@ -9493,7 +9617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="30" t="s">
         <v>239</v>
       </c>
@@ -9547,7 +9671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="22">
         <v>9836</v>
       </c>
@@ -9628,7 +9752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="30">
         <v>9837</v>
       </c>
@@ -9715,7 +9839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="30">
         <v>9838</v>
       </c>
@@ -9798,7 +9922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="48">
         <v>9839</v>
       </c>
@@ -9881,7 +10005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="30">
         <v>9840</v>
       </c>
@@ -9964,7 +10088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="30">
         <v>9841</v>
       </c>
@@ -10124,7 +10248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="22">
         <v>9843</v>
       </c>
@@ -10151,7 +10275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="30">
         <v>9843</v>
       </c>
@@ -10234,7 +10358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="30" t="s">
         <v>250</v>
       </c>
@@ -10471,7 +10595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="30">
         <v>9850</v>
       </c>
@@ -10552,7 +10676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="22">
         <v>9851</v>
       </c>
@@ -10581,7 +10705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="30">
         <v>9851</v>
       </c>
@@ -10608,7 +10732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="30">
         <v>9851</v>
       </c>
@@ -10635,7 +10759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="22">
         <v>9852</v>
       </c>
@@ -10664,7 +10788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="30">
         <v>9852</v>
       </c>
@@ -10691,7 +10815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="26">
         <v>9852</v>
       </c>
@@ -10718,7 +10842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="22">
         <v>9853</v>
       </c>
@@ -10747,7 +10871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="30">
         <v>9853</v>
       </c>
@@ -10774,7 +10898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="26">
         <v>9853</v>
       </c>
@@ -10801,7 +10925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="22">
         <v>9854</v>
       </c>
@@ -10828,7 +10952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="30">
         <v>9854</v>
       </c>
@@ -10855,7 +10979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="26">
         <v>9854</v>
       </c>
@@ -10882,7 +11006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="22">
         <v>9855</v>
       </c>
@@ -10909,7 +11033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="30">
         <v>9855</v>
       </c>
@@ -10936,7 +11060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="26">
         <v>9855</v>
       </c>
@@ -10965,7 +11089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="26">
         <v>9856</v>
       </c>
@@ -10992,7 +11116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="22" t="s">
         <v>258</v>
       </c>
@@ -11017,7 +11141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="26" t="s">
         <v>258</v>
       </c>
@@ -11044,7 +11168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="38" t="s">
         <v>261</v>
       </c>
@@ -11085,17 +11209,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>262</v>
       </c>
@@ -11157,7 +11281,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>15</v>
       </c>
@@ -11170,10 +11294,11 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D66" si="0">E2+F2</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <f>IF(C2="U2",Units!$D$3,IF(C2="KPC",Units!$D$2,Units!$D$4))+U2</f>
+        <v>150</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11183,22 +11308,22 @@
       </c>
       <c r="H2">
         <f>IF(M2*D2^3+N2*D2^2+O2*D2+P2&lt;0,0,M2*D2^3+N2*D2^2+O2*D2+P2)</f>
-        <v>699.99999999999966</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I2">
         <f>H2*G2/1000</f>
-        <v>349.99999999999983</v>
+        <v>299.99999999999966</v>
       </c>
       <c r="J2">
         <f>IF(Q2*D2^3+R2*D2^2+S2*D2+T2&lt;0,0,Q2*D2^3+R2*D2^2+S2*D2+T2)</f>
-        <v>330</v>
+        <v>348.75</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
       <c r="L2">
         <f>K2-J2</f>
-        <v>170</v>
+        <v>151.25</v>
       </c>
       <c r="M2">
         <v>-1.3333333333333263E-4</v>
@@ -11225,7 +11350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -11238,10 +11363,11 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E3" s="17">
+        <f>IF(C3="U2",Units!$D$3,IF(C3="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -11251,22 +11377,22 @@
       </c>
       <c r="H3">
         <f>IF(M3*D3^3+N3*D3^2+O3*D3+P3&lt;0,0,M3*D3^3+N3*D3^2+O3*D3+P3)</f>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I3">
         <f>H3*G3/1000</f>
-        <v>367.93439999999981</v>
+        <v>300.59999999999962</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="1">IF(Q3*D3^3+R3*D3^2+S3*D3+T3&lt;0,0,Q3*D3^3+R3*D3^2+S3*D3+T3)</f>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3">
         <f>K3-J3</f>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M3">
         <v>-1.3333333333333263E-4</v>
@@ -11293,7 +11419,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>116</v>
       </c>
@@ -11306,10 +11432,11 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E4">
-        <v>80</v>
+        <v>125</v>
+      </c>
+      <c r="E4" s="17">
+        <f>IF(C4="U2",Units!$D$3,IF(C4="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11319,22 +11446,22 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H66" si="2">IF(M4*D4^3+N4*D4^2+O4*D4+P4&lt;0,0,M4*D4^3+N4*D4^2+O4*D4+P4)</f>
-        <v>734.39999999999964</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I66" si="3">H4*G4/1000</f>
-        <v>368.66879999999981</v>
+        <v>329.43749999999977</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>339.84375</v>
       </c>
       <c r="K4">
         <v>500</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L66" si="4">K4-J4</f>
-        <v>177.92000000000002</v>
+        <v>160.15625</v>
       </c>
       <c r="M4">
         <v>-1.3333333333333263E-4</v>
@@ -11361,7 +11488,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>117</v>
       </c>
@@ -11374,10 +11501,11 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E5">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E5" s="17">
+        <f>IF(C5="U2",Units!$D$3,IF(C5="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11387,22 +11515,22 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>369.40319999999986</v>
+        <v>371.25745919999986</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K5">
         <v>500</v>
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M5">
         <v>-1.3333333333333263E-4</v>
@@ -11429,7 +11557,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>121</v>
       </c>
@@ -11439,10 +11567,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E6">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E6" s="17">
+        <f>IF(C6="U2",Units!$D$3,IF(C6="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11452,22 +11581,22 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>325.78559999999976</v>
+        <v>330.74999999999977</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K6">
         <v>500</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M6">
         <v>-1.3333333333333263E-4</v>
@@ -11494,7 +11623,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -11507,10 +11636,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E7">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E7" s="17">
+        <f>IF(C7="U2",Units!$D$3,IF(C7="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11520,22 +11650,22 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>370.87199999999984</v>
+        <v>302.99999999999966</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K7">
         <v>500</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M7">
         <v>-1.3333333333333263E-4</v>
@@ -11562,7 +11692,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -11572,10 +11702,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E8">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E8" s="17">
+        <f>IF(C8="U2",Units!$D$3,IF(C8="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11585,22 +11716,22 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>327.07839999999976</v>
+        <v>332.06249999999977</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K8">
         <v>500</v>
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M8">
         <v>-1.3333333333333263E-4</v>
@@ -11627,7 +11758,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>145</v>
       </c>
@@ -11637,10 +11768,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E9">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E9" s="17">
+        <f>IF(C9="U2",Units!$D$3,IF(C9="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11650,22 +11782,22 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>327.72479999999973</v>
+        <v>332.71874999999977</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K9">
         <v>500</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M9">
         <v>-1.3333333333333263E-4</v>
@@ -11692,7 +11824,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>152</v>
       </c>
@@ -11702,10 +11834,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E10">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E10" s="17">
+        <f>IF(C10="U2",Units!$D$3,IF(C10="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11715,22 +11848,22 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>328.37119999999976</v>
+        <v>333.37499999999977</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K10">
         <v>500</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M10">
         <v>-1.3333333333333263E-4</v>
@@ -11757,7 +11890,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>153</v>
       </c>
@@ -11770,10 +11903,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E11">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E11" s="17">
+        <f>IF(C11="U2",Units!$D$3,IF(C11="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11783,22 +11917,22 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>373.80959999999982</v>
+        <v>305.39999999999964</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K11">
         <v>500</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M11">
         <v>-1.3333333333333263E-4</v>
@@ -11825,7 +11959,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>162</v>
       </c>
@@ -11838,10 +11972,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E12">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E12" s="17">
+        <f>IF(C12="U2",Units!$D$3,IF(C12="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -11851,22 +11986,22 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>374.54399999999981</v>
+        <v>305.99999999999966</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K12">
         <v>500</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M12">
         <v>-1.3333333333333263E-4</v>
@@ -11893,7 +12028,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -11906,10 +12041,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E13">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E13" s="17">
+        <f>IF(C13="U2",Units!$D$3,IF(C13="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -11919,22 +12055,22 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>375.27839999999981</v>
+        <v>306.59999999999962</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K13">
         <v>500</v>
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M13">
         <v>-1.3333333333333263E-4</v>
@@ -11961,7 +12097,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>203</v>
       </c>
@@ -11974,10 +12110,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E14" s="17">
+        <f>IF(C14="U2",Units!$D$3,IF(C14="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -11987,22 +12124,22 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>376.0127999999998</v>
+        <v>307.19999999999965</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K14">
         <v>500</v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M14">
         <v>-1.3333333333333263E-4</v>
@@ -12029,7 +12166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>205</v>
       </c>
@@ -12042,10 +12179,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E15" s="17">
+        <f>IF(C15="U2",Units!$D$3,IF(C15="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -12055,22 +12193,22 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>376.74719999999985</v>
+        <v>307.79999999999967</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K15">
         <v>500</v>
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M15">
         <v>-1.3333333333333263E-4</v>
@@ -12097,7 +12235,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>209</v>
       </c>
@@ -12110,10 +12248,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E16" s="17">
+        <f>IF(C16="U2",Units!$D$3,IF(C16="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -12123,22 +12262,22 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>377.48159999999979</v>
+        <v>308.39999999999964</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K16">
         <v>500</v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M16">
         <v>-1.3333333333333263E-4</v>
@@ -12165,7 +12304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>214</v>
       </c>
@@ -12175,10 +12314,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E17">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E17" s="17">
+        <f>IF(C17="U2",Units!$D$3,IF(C17="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -12188,22 +12328,22 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>378.21599999999984</v>
+        <v>308.99999999999966</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K17">
         <v>500</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M17">
         <v>-1.3333333333333263E-4</v>
@@ -12230,7 +12370,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>216</v>
       </c>
@@ -12243,10 +12383,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E18">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E18" s="17">
+        <f>IF(C18="U2",Units!$D$3,IF(C18="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -12256,22 +12397,22 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>378.95039999999977</v>
+        <v>309.59999999999962</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K18">
         <v>500</v>
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M18">
         <v>-1.3333333333333263E-4</v>
@@ -12298,7 +12439,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>220</v>
       </c>
@@ -12311,10 +12452,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E19">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E19" s="17">
+        <f>IF(C19="U2",Units!$D$3,IF(C19="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -12324,22 +12466,22 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>379.68479999999983</v>
+        <v>310.19999999999965</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K19">
         <v>500</v>
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M19">
         <v>-1.3333333333333263E-4</v>
@@ -12366,7 +12508,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>223</v>
       </c>
@@ -12376,10 +12518,11 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E20">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E20" s="17">
+        <f>IF(C20="U2",Units!$D$3,IF(C20="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -12389,22 +12532,22 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>334.83519999999976</v>
+        <v>339.93749999999977</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K20">
         <v>500</v>
       </c>
       <c r="L20">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M20">
         <v>-1.3333333333333263E-4</v>
@@ -12431,7 +12574,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>231</v>
       </c>
@@ -12444,10 +12587,11 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E21">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E21" s="17">
+        <f>IF(C21="U2",Units!$D$3,IF(C21="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -12457,22 +12601,22 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>381.15359999999981</v>
+        <v>311.39999999999964</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K21">
         <v>500</v>
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M21">
         <v>-1.3333333333333263E-4</v>
@@ -12499,7 +12643,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>233</v>
       </c>
@@ -12512,10 +12656,11 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E22">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E22" s="17">
+        <f>IF(C22="U2",Units!$D$3,IF(C22="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -12525,22 +12670,22 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>381.88799999999981</v>
+        <v>311.99999999999966</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K22">
         <v>500</v>
       </c>
       <c r="L22">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M22">
         <v>-1.3333333333333263E-4</v>
@@ -12567,7 +12712,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>239</v>
       </c>
@@ -12580,10 +12725,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E23">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E23" s="17">
+        <f>IF(C23="U2",Units!$D$3,IF(C23="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -12593,22 +12739,22 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>382.6223999999998</v>
+        <v>312.59999999999962</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K23">
         <v>500</v>
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M23">
         <v>-1.3333333333333263E-4</v>
@@ -12635,7 +12781,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>243</v>
       </c>
@@ -12648,10 +12794,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E24">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E24" s="17">
+        <f>IF(C24="U2",Units!$D$3,IF(C24="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -12661,22 +12808,22 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>383.35679999999979</v>
+        <v>313.19999999999965</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K24">
         <v>500</v>
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M24">
         <v>-1.3333333333333263E-4</v>
@@ -12703,7 +12850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>306</v>
       </c>
@@ -12716,10 +12863,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E25">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E25" s="17">
+        <f>IF(C25="U2",Units!$D$3,IF(C25="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -12729,22 +12877,22 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>384.09119999999984</v>
+        <v>386.01918719999981</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K25">
         <v>500</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M25">
         <v>-1.3333333333333263E-4</v>
@@ -12771,7 +12919,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>308</v>
       </c>
@@ -12784,10 +12932,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E26">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E26" s="17">
+        <f>IF(C26="U2",Units!$D$3,IF(C26="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -12797,22 +12946,22 @@
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>384.82559999999978</v>
+        <v>386.75727359999985</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K26">
         <v>500</v>
       </c>
       <c r="L26">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M26">
         <v>-1.3333333333333263E-4</v>
@@ -12839,7 +12988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>310</v>
       </c>
@@ -12849,10 +12998,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E27">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E27" s="17">
+        <f>IF(C27="U2",Units!$D$3,IF(C27="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -12862,22 +13012,22 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>339.35999999999979</v>
+        <v>344.53124999999977</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K27">
         <v>500</v>
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M27">
         <v>-1.3333333333333263E-4</v>
@@ -12904,7 +13054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>313</v>
       </c>
@@ -12914,10 +13064,11 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E28">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E28" s="17">
+        <f>IF(C28="U2",Units!$D$3,IF(C28="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -12927,22 +13078,22 @@
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>340.00639999999976</v>
+        <v>345.18749999999977</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K28">
         <v>500</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M28">
         <v>-1.3333333333333263E-4</v>
@@ -12969,7 +13120,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>314</v>
       </c>
@@ -12979,10 +13130,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E29">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E29" s="17">
+        <f>IF(C29="U2",Units!$D$3,IF(C29="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -12992,22 +13144,22 @@
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>340.65279999999973</v>
+        <v>345.84374999999977</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K29">
         <v>500</v>
       </c>
       <c r="L29">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M29">
         <v>-1.3333333333333263E-4</v>
@@ -13034,7 +13186,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>319</v>
       </c>
@@ -13044,10 +13196,11 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E30">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E30" s="17">
+        <f>IF(C30="U2",Units!$D$3,IF(C30="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -13057,22 +13210,22 @@
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>341.2991999999997</v>
+        <v>346.49999999999977</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K30">
         <v>500</v>
       </c>
       <c r="L30">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M30">
         <v>-1.3333333333333263E-4</v>
@@ -13099,7 +13252,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>320</v>
       </c>
@@ -13109,10 +13262,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E31">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E31" s="17">
+        <f>IF(C31="U2",Units!$D$3,IF(C31="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -13122,22 +13276,22 @@
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>341.94559999999973</v>
+        <v>347.15624999999977</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K31">
         <v>500</v>
       </c>
       <c r="L31">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M31">
         <v>-1.3333333333333263E-4</v>
@@ -13164,7 +13318,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>322</v>
       </c>
@@ -13174,10 +13328,11 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E32">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E32" s="17">
+        <f>IF(C32="U2",Units!$D$3,IF(C32="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -13187,22 +13342,22 @@
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>342.59199999999976</v>
+        <v>347.81249999999977</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K32">
         <v>500</v>
       </c>
       <c r="L32">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M32">
         <v>-1.3333333333333263E-4</v>
@@ -13229,7 +13384,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>323</v>
       </c>
@@ -13239,10 +13394,11 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E33">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E33" s="17">
+        <f>IF(C33="U2",Units!$D$3,IF(C33="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -13252,22 +13408,22 @@
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>343.23839999999973</v>
+        <v>348.46874999999977</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K33">
         <v>500</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M33">
         <v>-1.3333333333333263E-4</v>
@@ -13294,7 +13450,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>324</v>
       </c>
@@ -13304,10 +13460,11 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E34">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E34" s="17">
+        <f>IF(C34="U2",Units!$D$3,IF(C34="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -13317,22 +13474,22 @@
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>343.88479999999976</v>
+        <v>349.12499999999977</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K34">
         <v>500</v>
       </c>
       <c r="L34">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M34">
         <v>-1.3333333333333263E-4</v>
@@ -13359,7 +13516,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>326</v>
       </c>
@@ -13369,10 +13526,11 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E35">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E35" s="17">
+        <f>IF(C35="U2",Units!$D$3,IF(C35="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -13382,22 +13540,22 @@
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>344.53119999999973</v>
+        <v>349.78124999999977</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K35">
         <v>500</v>
       </c>
       <c r="L35">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M35">
         <v>-1.3333333333333263E-4</v>
@@ -13424,7 +13582,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>328</v>
       </c>
@@ -13434,10 +13592,11 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E36">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E36" s="17">
+        <f>IF(C36="U2",Units!$D$3,IF(C36="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -13447,22 +13606,22 @@
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>345.17759999999976</v>
+        <v>350.43749999999977</v>
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K36">
         <v>500</v>
       </c>
       <c r="L36">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M36">
         <v>-1.3333333333333263E-4</v>
@@ -13489,7 +13648,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>340</v>
       </c>
@@ -13502,10 +13661,11 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E37">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E37" s="17">
+        <f>IF(C37="U2",Units!$D$3,IF(C37="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -13515,22 +13675,22 @@
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>392.90399999999983</v>
+        <v>394.87622399999981</v>
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K37">
         <v>500</v>
       </c>
       <c r="L37">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M37">
         <v>-1.3333333333333263E-4</v>
@@ -13557,7 +13717,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>346</v>
       </c>
@@ -13567,10 +13727,11 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E38">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E38" s="17">
+        <f>IF(C38="U2",Units!$D$3,IF(C38="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -13580,22 +13741,22 @@
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>346.47039999999976</v>
+        <v>351.74999999999977</v>
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K38">
         <v>500</v>
       </c>
       <c r="L38">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M38">
         <v>-1.3333333333333263E-4</v>
@@ -13622,7 +13783,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>347</v>
       </c>
@@ -13632,10 +13793,11 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E39">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E39" s="17">
+        <f>IF(C39="U2",Units!$D$3,IF(C39="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -13645,22 +13807,22 @@
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>347.11679999999973</v>
+        <v>352.40624999999977</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K39">
         <v>500</v>
       </c>
       <c r="L39">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M39">
         <v>-1.3333333333333263E-4</v>
@@ -13687,7 +13849,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>348</v>
       </c>
@@ -13697,10 +13859,11 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E40">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E40" s="17">
+        <f>IF(C40="U2",Units!$D$3,IF(C40="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -13710,22 +13873,22 @@
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>347.7631999999997</v>
+        <v>353.06249999999977</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K40">
         <v>500</v>
       </c>
       <c r="L40">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M40">
         <v>-1.3333333333333263E-4</v>
@@ -13752,7 +13915,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>351</v>
       </c>
@@ -13762,10 +13925,11 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E41">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E41" s="17">
+        <f>IF(C41="U2",Units!$D$3,IF(C41="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -13775,22 +13939,22 @@
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>348.40959999999973</v>
+        <v>353.71874999999977</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K41">
         <v>500</v>
       </c>
       <c r="L41">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M41">
         <v>-1.3333333333333263E-4</v>
@@ -13817,7 +13981,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>408</v>
       </c>
@@ -13830,10 +13994,11 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E42">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E42" s="17">
+        <f>IF(C42="U2",Units!$D$3,IF(C42="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -13843,22 +14008,22 @@
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>396.57599999999985</v>
+        <v>398.56665599999985</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K42">
         <v>500</v>
       </c>
       <c r="L42">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M42">
         <v>-1.3333333333333263E-4</v>
@@ -13885,7 +14050,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>419</v>
       </c>
@@ -13898,10 +14063,11 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E43">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E43" s="17">
+        <f>IF(C43="U2",Units!$D$3,IF(C43="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -13911,22 +14077,22 @@
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>397.31039999999979</v>
+        <v>399.30474239999984</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K43">
         <v>500</v>
       </c>
       <c r="L43">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M43">
         <v>-1.3333333333333263E-4</v>
@@ -13953,7 +14119,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>420</v>
       </c>
@@ -13966,10 +14132,11 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E44">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E44" s="17">
+        <f>IF(C44="U2",Units!$D$3,IF(C44="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -13979,22 +14146,22 @@
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>398.04479999999984</v>
+        <v>400.04282879999982</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K44">
         <v>500</v>
       </c>
       <c r="L44">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M44">
         <v>-1.3333333333333263E-4</v>
@@ -14021,7 +14188,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -14034,10 +14201,11 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E45">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E45" s="17">
+        <f>IF(C45="U2",Units!$D$3,IF(C45="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -14047,22 +14215,22 @@
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>398.77919999999978</v>
+        <v>400.78091519999981</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K45">
         <v>500</v>
       </c>
       <c r="L45">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M45">
         <v>-1.3333333333333263E-4</v>
@@ -14089,7 +14257,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>430</v>
       </c>
@@ -14102,10 +14270,11 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E46">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E46" s="17">
+        <f>IF(C46="U2",Units!$D$3,IF(C46="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -14115,22 +14284,22 @@
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>399.51359999999983</v>
+        <v>401.51900159999985</v>
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K46">
         <v>500</v>
       </c>
       <c r="L46">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M46">
         <v>-1.3333333333333263E-4</v>
@@ -14157,7 +14326,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>432</v>
       </c>
@@ -14167,10 +14336,11 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E47">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E47" s="17">
+        <f>IF(C47="U2",Units!$D$3,IF(C47="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -14180,22 +14350,22 @@
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>352.28799999999978</v>
+        <v>357.65624999999977</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K47">
         <v>500</v>
       </c>
       <c r="L47">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M47">
         <v>-1.3333333333333263E-4</v>
@@ -14222,7 +14392,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>437</v>
       </c>
@@ -14235,10 +14405,11 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E48">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E48" s="17">
+        <f>IF(C48="U2",Units!$D$3,IF(C48="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -14248,22 +14419,22 @@
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>400.98239999999981</v>
+        <v>402.99517439999983</v>
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K48">
         <v>500</v>
       </c>
       <c r="L48">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M48">
         <v>-1.3333333333333263E-4</v>
@@ -14290,7 +14461,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>439</v>
       </c>
@@ -14303,10 +14474,11 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E49">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E49" s="17">
+        <f>IF(C49="U2",Units!$D$3,IF(C49="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -14316,22 +14488,22 @@
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>401.71679999999981</v>
+        <v>403.73326079999981</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K49">
         <v>500</v>
       </c>
       <c r="L49">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M49">
         <v>-1.3333333333333263E-4</v>
@@ -14358,7 +14530,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>442</v>
       </c>
@@ -14371,10 +14543,11 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E50">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E50" s="17">
+        <f>IF(C50="U2",Units!$D$3,IF(C50="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -14384,22 +14557,22 @@
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>402.4511999999998</v>
+        <v>404.47134719999985</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K50">
         <v>500</v>
       </c>
       <c r="L50">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M50">
         <v>-1.3333333333333263E-4</v>
@@ -14426,7 +14599,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>446</v>
       </c>
@@ -14436,10 +14609,11 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E51">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E51" s="17">
+        <f>IF(C51="U2",Units!$D$3,IF(C51="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -14449,22 +14623,22 @@
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
-        <v>403.18559999999979</v>
+        <v>405.20943359999984</v>
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K51">
         <v>500</v>
       </c>
       <c r="L51">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M51">
         <v>-1.3333333333333263E-4</v>
@@ -14491,7 +14665,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -14504,10 +14678,11 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E52">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E52" s="17">
+        <f>IF(C52="U2",Units!$D$3,IF(C52="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -14517,22 +14692,22 @@
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>403.91999999999985</v>
+        <v>405.94751999999983</v>
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K52">
         <v>500</v>
       </c>
       <c r="L52">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M52">
         <v>-1.3333333333333263E-4</v>
@@ -14559,7 +14734,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>452</v>
       </c>
@@ -14572,10 +14747,11 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E53">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E53" s="17">
+        <f>IF(C53="U2",Units!$D$3,IF(C53="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -14585,22 +14761,22 @@
       </c>
       <c r="H53">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
-        <v>404.65439999999978</v>
+        <v>406.68560639999981</v>
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K53">
         <v>500</v>
       </c>
       <c r="L53">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M53">
         <v>-1.3333333333333263E-4</v>
@@ -14627,7 +14803,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>605</v>
       </c>
@@ -14637,10 +14813,11 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E54">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E54" s="17">
+        <f>IF(C54="U2",Units!$D$3,IF(C54="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -14650,22 +14827,22 @@
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
-        <v>356.81279999999975</v>
+        <v>362.24999999999977</v>
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K54">
         <v>500</v>
       </c>
       <c r="L54">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M54">
         <v>-1.3333333333333263E-4</v>
@@ -14692,7 +14869,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>710</v>
       </c>
@@ -14705,10 +14882,11 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E55">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E55" s="17">
+        <f>IF(C55="U2",Units!$D$3,IF(C55="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -14718,22 +14896,22 @@
       </c>
       <c r="H55">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
-        <v>406.12319999999977</v>
+        <v>331.79999999999967</v>
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K55">
         <v>500</v>
       </c>
       <c r="L55">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M55">
         <v>-1.3333333333333263E-4</v>
@@ -14760,7 +14938,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>711</v>
       </c>
@@ -14770,10 +14948,11 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E56">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E56" s="17">
+        <f>IF(C56="U2",Units!$D$3,IF(C56="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -14783,22 +14962,22 @@
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
-        <v>406.85759999999982</v>
+        <v>332.39999999999964</v>
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K56">
         <v>500</v>
       </c>
       <c r="L56">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M56">
         <v>-1.3333333333333263E-4</v>
@@ -14825,7 +15004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>713</v>
       </c>
@@ -14838,10 +15017,11 @@
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E57">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E57" s="17">
+        <f>IF(C57="U2",Units!$D$3,IF(C57="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -14851,22 +15031,22 @@
       </c>
       <c r="H57">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
-        <v>407.59199999999981</v>
+        <v>332.9999999999996</v>
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K57">
         <v>500</v>
       </c>
       <c r="L57">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M57">
         <v>-1.3333333333333263E-4</v>
@@ -14893,7 +15073,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -14906,10 +15086,11 @@
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E58">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E58" s="17">
+        <f>IF(C58="U2",Units!$D$3,IF(C58="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -14919,22 +15100,22 @@
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
-        <v>408.32639999999981</v>
+        <v>333.59999999999957</v>
       </c>
       <c r="J58">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K58">
         <v>500</v>
       </c>
       <c r="L58">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M58">
         <v>-1.3333333333333263E-4</v>
@@ -14961,7 +15142,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>803</v>
       </c>
@@ -14974,10 +15155,11 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E59">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E59" s="17">
+        <f>IF(C59="U2",Units!$D$3,IF(C59="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -14987,22 +15169,22 @@
       </c>
       <c r="H59">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
-        <v>409.0607999999998</v>
+        <v>411.11412479999984</v>
       </c>
       <c r="J59">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K59">
         <v>500</v>
       </c>
       <c r="L59">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M59">
         <v>-1.3333333333333263E-4</v>
@@ -15029,7 +15211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>806</v>
       </c>
@@ -15042,10 +15224,11 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E60">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E60" s="17">
+        <f>IF(C60="U2",Units!$D$3,IF(C60="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -15055,22 +15238,22 @@
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
-        <v>409.7951999999998</v>
+        <v>411.85221119999983</v>
       </c>
       <c r="J60">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K60">
         <v>500</v>
       </c>
       <c r="L60">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M60">
         <v>-1.3333333333333263E-4</v>
@@ -15097,7 +15280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>817</v>
       </c>
@@ -15107,10 +15290,11 @@
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E61">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E61" s="17">
+        <f>IF(C61="U2",Units!$D$3,IF(C61="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -15120,22 +15304,22 @@
       </c>
       <c r="H61">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
-        <v>361.33759999999972</v>
+        <v>366.84374999999977</v>
       </c>
       <c r="J61">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K61">
         <v>500</v>
       </c>
       <c r="L61">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M61">
         <v>-1.3333333333333263E-4</v>
@@ -15162,7 +15346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>818</v>
       </c>
@@ -15175,10 +15359,11 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E62">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E62" s="17">
+        <f>IF(C62="U2",Units!$D$3,IF(C62="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -15188,22 +15373,22 @@
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
-        <v>411.26399999999978</v>
+        <v>413.32838399999986</v>
       </c>
       <c r="J62">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K62">
         <v>500</v>
       </c>
       <c r="L62">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M62">
         <v>-1.3333333333333263E-4</v>
@@ -15230,7 +15415,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>822</v>
       </c>
@@ -15240,10 +15425,11 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E63">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="E63" s="17">
+        <f>IF(C63="U2",Units!$D$3,IF(C63="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>125</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -15253,22 +15439,22 @@
       </c>
       <c r="H63">
         <f t="shared" si="2"/>
-        <v>646.39999999999952</v>
+        <v>656.24999999999955</v>
       </c>
       <c r="I63">
         <f t="shared" si="3"/>
-        <v>362.63039999999972</v>
+        <v>368.15624999999977</v>
       </c>
       <c r="J63">
         <f t="shared" si="1"/>
-        <v>341.73</v>
+        <v>339.84375</v>
       </c>
       <c r="K63">
         <v>500</v>
       </c>
       <c r="L63">
         <f t="shared" si="4"/>
-        <v>158.26999999999998</v>
+        <v>160.15625</v>
       </c>
       <c r="M63">
         <v>-1.3333333333333263E-4</v>
@@ -15295,7 +15481,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>905</v>
       </c>
@@ -15305,10 +15491,11 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E64">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E64" s="17">
+        <f>IF(C64="U2",Units!$D$3,IF(C64="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -15318,22 +15505,22 @@
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I64">
         <f t="shared" si="3"/>
-        <v>412.73279999999983</v>
+        <v>414.80455679999983</v>
       </c>
       <c r="J64">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K64">
         <v>500</v>
       </c>
       <c r="L64">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M64">
         <v>-1.3333333333333263E-4</v>
@@ -15360,7 +15547,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>910</v>
       </c>
@@ -15373,10 +15560,11 @@
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E65">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E65" s="17">
+        <f>IF(C65="U2",Units!$D$3,IF(C65="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -15386,22 +15574,22 @@
       </c>
       <c r="H65">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I65">
         <f t="shared" si="3"/>
-        <v>413.46719999999976</v>
+        <v>415.54264319999982</v>
       </c>
       <c r="J65">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K65">
         <v>500</v>
       </c>
       <c r="L65">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M65">
         <v>-1.3333333333333263E-4</v>
@@ -15428,7 +15616,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>912</v>
       </c>
@@ -15441,10 +15629,11 @@
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E66">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E66" s="17">
+        <f>IF(C66="U2",Units!$D$3,IF(C66="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -15454,22 +15643,22 @@
       </c>
       <c r="H66">
         <f t="shared" si="2"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I66">
         <f t="shared" si="3"/>
-        <v>414.20159999999981</v>
+        <v>416.28072959999986</v>
       </c>
       <c r="J66">
         <f t="shared" si="1"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K66">
         <v>500</v>
       </c>
       <c r="L66">
         <f t="shared" si="4"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M66">
         <v>-1.3333333333333263E-4</v>
@@ -15496,7 +15685,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -15509,10 +15698,11 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D124" si="5">E67+F67</f>
-        <v>80</v>
-      </c>
-      <c r="E67">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E67" s="17">
+        <f>IF(C67="U2",Units!$D$3,IF(C67="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -15522,22 +15712,22 @@
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H124" si="6">IF(M67*D67^3+N67*D67^2+O67*D67+P67&lt;0,0,M67*D67^3+N67*D67^2+O67*D67+P67)</f>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I124" si="7">H67*G67/1000</f>
-        <v>414.93599999999975</v>
+        <v>417.01881599999984</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J124" si="8">IF(Q67*D67^3+R67*D67^2+S67*D67+T67&lt;0,0,Q67*D67^3+R67*D67^2+S67*D67+T67)</f>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K67">
         <v>500</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L124" si="9">K67-J67</f>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M67">
         <v>-1.3333333333333263E-4</v>
@@ -15564,7 +15754,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>918</v>
       </c>
@@ -15577,10 +15767,11 @@
       </c>
       <c r="D68">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E68">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E68" s="17">
+        <f>IF(C68="U2",Units!$D$3,IF(C68="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -15590,22 +15781,22 @@
       </c>
       <c r="H68">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I68">
         <f t="shared" si="7"/>
-        <v>415.6703999999998</v>
+        <v>417.75690239999983</v>
       </c>
       <c r="J68">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K68">
         <v>500</v>
       </c>
       <c r="L68">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M68">
         <v>-1.3333333333333263E-4</v>
@@ -15632,7 +15823,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>920</v>
       </c>
@@ -15645,10 +15836,11 @@
       </c>
       <c r="D69">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E69">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E69" s="17">
+        <f>IF(C69="U2",Units!$D$3,IF(C69="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -15658,22 +15850,22 @@
       </c>
       <c r="H69">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I69">
         <f t="shared" si="7"/>
-        <v>416.4047999999998</v>
+        <v>418.49498879999982</v>
       </c>
       <c r="J69">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K69">
         <v>500</v>
       </c>
       <c r="L69">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M69">
         <v>-1.3333333333333263E-4</v>
@@ -15700,7 +15892,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -15713,10 +15905,11 @@
       </c>
       <c r="D70">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E70">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E70" s="17">
+        <f>IF(C70="U2",Units!$D$3,IF(C70="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -15726,22 +15919,22 @@
       </c>
       <c r="H70">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I70">
         <f t="shared" si="7"/>
-        <v>417.13919999999979</v>
+        <v>419.23307519999986</v>
       </c>
       <c r="J70">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K70">
         <v>500</v>
       </c>
       <c r="L70">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M70">
         <v>-1.3333333333333263E-4</v>
@@ -15768,7 +15961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5488</v>
       </c>
@@ -15781,10 +15974,11 @@
       </c>
       <c r="D71">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E71">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E71" s="17">
+        <f>IF(C71="U2",Units!$D$3,IF(C71="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -15794,22 +15988,22 @@
       </c>
       <c r="H71">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I71">
         <f t="shared" si="7"/>
-        <v>417.87359999999978</v>
+        <v>419.97116159999985</v>
       </c>
       <c r="J71">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K71">
         <v>500</v>
       </c>
       <c r="L71">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M71">
         <v>-1.3333333333333263E-4</v>
@@ -15836,7 +16030,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5790</v>
       </c>
@@ -15849,10 +16043,11 @@
       </c>
       <c r="D72">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E72">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E72" s="17">
+        <f>IF(C72="U2",Units!$D$3,IF(C72="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -15862,22 +16057,22 @@
       </c>
       <c r="H72">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I72">
         <f t="shared" si="7"/>
-        <v>418.60799999999978</v>
+        <v>420.70924799999983</v>
       </c>
       <c r="J72">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K72">
         <v>500</v>
       </c>
       <c r="L72">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M72">
         <v>-1.3333333333333263E-4</v>
@@ -15904,7 +16099,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5887</v>
       </c>
@@ -15917,10 +16112,11 @@
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E73">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E73" s="17">
+        <f>IF(C73="U2",Units!$D$3,IF(C73="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -15930,22 +16126,22 @@
       </c>
       <c r="H73">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I73">
         <f t="shared" si="7"/>
-        <v>419.34239999999977</v>
+        <v>421.44733439999982</v>
       </c>
       <c r="J73">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K73">
         <v>500</v>
       </c>
       <c r="L73">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M73">
         <v>-1.3333333333333263E-4</v>
@@ -15972,7 +16168,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>9805</v>
       </c>
@@ -15985,10 +16181,11 @@
       </c>
       <c r="D74">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E74">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E74" s="17">
+        <f>IF(C74="U2",Units!$D$3,IF(C74="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -15998,22 +16195,22 @@
       </c>
       <c r="H74">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I74">
         <f t="shared" si="7"/>
-        <v>420.07679999999982</v>
+        <v>422.18542079999986</v>
       </c>
       <c r="J74">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K74">
         <v>500</v>
       </c>
       <c r="L74">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M74">
         <v>-1.3333333333333263E-4</v>
@@ -16040,7 +16237,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>9806</v>
       </c>
@@ -16053,10 +16250,11 @@
       </c>
       <c r="D75">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E75">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E75" s="17">
+        <f>IF(C75="U2",Units!$D$3,IF(C75="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -16066,22 +16264,22 @@
       </c>
       <c r="H75">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I75">
         <f t="shared" si="7"/>
-        <v>420.81119999999976</v>
+        <v>343.79999999999961</v>
       </c>
       <c r="J75">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K75">
         <v>500</v>
       </c>
       <c r="L75">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M75">
         <v>-1.3333333333333263E-4</v>
@@ -16108,7 +16306,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>9807</v>
       </c>
@@ -16121,10 +16319,11 @@
       </c>
       <c r="D76">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E76">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E76" s="17">
+        <f>IF(C76="U2",Units!$D$3,IF(C76="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -16134,22 +16333,22 @@
       </c>
       <c r="H76">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I76">
         <f t="shared" si="7"/>
-        <v>421.54559999999981</v>
+        <v>423.66159359999983</v>
       </c>
       <c r="J76">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K76">
         <v>500</v>
       </c>
       <c r="L76">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M76">
         <v>-1.3333333333333263E-4</v>
@@ -16176,7 +16375,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>9808</v>
       </c>
@@ -16189,10 +16388,11 @@
       </c>
       <c r="D77">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E77">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E77" s="17">
+        <f>IF(C77="U2",Units!$D$3,IF(C77="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -16202,22 +16402,22 @@
       </c>
       <c r="H77">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I77">
         <f t="shared" si="7"/>
-        <v>422.27999999999975</v>
+        <v>424.39967999999982</v>
       </c>
       <c r="J77">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K77">
         <v>500</v>
       </c>
       <c r="L77">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M77">
         <v>-1.3333333333333263E-4</v>
@@ -16244,7 +16444,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>9809</v>
       </c>
@@ -16254,10 +16454,11 @@
       </c>
       <c r="D78">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E78">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E78" s="17">
+        <f>IF(C78="U2",Units!$D$3,IF(C78="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -16267,22 +16468,22 @@
       </c>
       <c r="H78">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I78">
         <f t="shared" si="7"/>
-        <v>423.0143999999998</v>
+        <v>425.13776639999986</v>
       </c>
       <c r="J78">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K78">
         <v>500</v>
       </c>
       <c r="L78">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M78">
         <v>-1.3333333333333263E-4</v>
@@ -16309,7 +16510,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -16322,10 +16523,11 @@
       </c>
       <c r="D79">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E79">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E79" s="17">
+        <f>IF(C79="U2",Units!$D$3,IF(C79="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -16335,22 +16537,22 @@
       </c>
       <c r="H79">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I79">
         <f t="shared" si="7"/>
-        <v>423.74879999999979</v>
+        <v>425.87585279999979</v>
       </c>
       <c r="J79">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K79">
         <v>500</v>
       </c>
       <c r="L79">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M79">
         <v>-1.3333333333333263E-4</v>
@@ -16377,7 +16579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>9811</v>
       </c>
@@ -16390,10 +16592,11 @@
       </c>
       <c r="D80">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E80">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E80" s="17">
+        <f>IF(C80="U2",Units!$D$3,IF(C80="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -16403,22 +16606,22 @@
       </c>
       <c r="H80">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I80">
         <f t="shared" si="7"/>
-        <v>424.48319999999978</v>
+        <v>426.61393919999978</v>
       </c>
       <c r="J80">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K80">
         <v>500</v>
       </c>
       <c r="L80">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M80">
         <v>-1.3333333333333263E-4</v>
@@ -16445,7 +16648,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>9812</v>
       </c>
@@ -16458,10 +16661,11 @@
       </c>
       <c r="D81">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E81">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E81" s="17">
+        <f>IF(C81="U2",Units!$D$3,IF(C81="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -16471,22 +16675,22 @@
       </c>
       <c r="H81">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I81">
         <f t="shared" si="7"/>
-        <v>425.21759999999978</v>
+        <v>427.35202559999982</v>
       </c>
       <c r="J81">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K81">
         <v>500</v>
       </c>
       <c r="L81">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M81">
         <v>-1.3333333333333263E-4</v>
@@ -16513,7 +16717,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -16526,10 +16730,11 @@
       </c>
       <c r="D82">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E82">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E82" s="17">
+        <f>IF(C82="U2",Units!$D$3,IF(C82="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -16539,22 +16744,22 @@
       </c>
       <c r="H82">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I82">
         <f t="shared" si="7"/>
-        <v>425.95199999999977</v>
+        <v>347.9999999999996</v>
       </c>
       <c r="J82">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K82">
         <v>500</v>
       </c>
       <c r="L82">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M82">
         <v>-1.3333333333333263E-4</v>
@@ -16581,7 +16786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>192</v>
       </c>
@@ -16591,10 +16796,11 @@
       </c>
       <c r="D83">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E83">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E83" s="17">
+        <f>IF(C83="U2",Units!$D$3,IF(C83="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -16604,22 +16810,22 @@
       </c>
       <c r="H83">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I83">
         <f t="shared" si="7"/>
-        <v>426.68639999999976</v>
+        <v>428.82819839999979</v>
       </c>
       <c r="J83">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K83">
         <v>500</v>
       </c>
       <c r="L83">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M83">
         <v>-1.3333333333333263E-4</v>
@@ -16646,7 +16852,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>9815</v>
       </c>
@@ -16659,10 +16865,11 @@
       </c>
       <c r="D84">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E84">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E84" s="17">
+        <f>IF(C84="U2",Units!$D$3,IF(C84="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -16672,22 +16879,22 @@
       </c>
       <c r="H84">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I84">
         <f t="shared" si="7"/>
-        <v>427.42079999999982</v>
+        <v>429.56628479999978</v>
       </c>
       <c r="J84">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K84">
         <v>500</v>
       </c>
       <c r="L84">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M84">
         <v>-1.3333333333333263E-4</v>
@@ -16714,7 +16921,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>196</v>
       </c>
@@ -16727,10 +16934,11 @@
       </c>
       <c r="D85">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E85">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E85" s="17">
+        <f>IF(C85="U2",Units!$D$3,IF(C85="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -16740,22 +16948,22 @@
       </c>
       <c r="H85">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I85">
         <f t="shared" si="7"/>
-        <v>428.15519999999975</v>
+        <v>430.30437119999982</v>
       </c>
       <c r="J85">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K85">
         <v>500</v>
       </c>
       <c r="L85">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M85">
         <v>-1.3333333333333263E-4</v>
@@ -16782,7 +16990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9817</v>
       </c>
@@ -16795,10 +17003,11 @@
       </c>
       <c r="D86">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E86">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E86" s="17">
+        <f>IF(C86="U2",Units!$D$3,IF(C86="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -16808,22 +17017,22 @@
       </c>
       <c r="H86">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I86">
         <f t="shared" si="7"/>
-        <v>428.8895999999998</v>
+        <v>350.39999999999958</v>
       </c>
       <c r="J86">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K86">
         <v>500</v>
       </c>
       <c r="L86">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M86">
         <v>-1.3333333333333263E-4</v>
@@ -16850,7 +17059,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9818</v>
       </c>
@@ -16863,10 +17072,11 @@
       </c>
       <c r="D87">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E87">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E87" s="17">
+        <f>IF(C87="U2",Units!$D$3,IF(C87="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -16876,22 +17086,22 @@
       </c>
       <c r="H87">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I87">
         <f t="shared" si="7"/>
-        <v>429.62399999999974</v>
+        <v>431.78054399999979</v>
       </c>
       <c r="J87">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K87">
         <v>500</v>
       </c>
       <c r="L87">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M87">
         <v>-1.3333333333333263E-4</v>
@@ -16918,7 +17128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>9819</v>
       </c>
@@ -16931,10 +17141,11 @@
       </c>
       <c r="D88">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E88">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E88" s="17">
+        <f>IF(C88="U2",Units!$D$3,IF(C88="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -16944,22 +17155,22 @@
       </c>
       <c r="H88">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I88">
         <f t="shared" si="7"/>
-        <v>430.35839999999979</v>
+        <v>351.59999999999957</v>
       </c>
       <c r="J88">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K88">
         <v>500</v>
       </c>
       <c r="L88">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M88">
         <v>-1.3333333333333263E-4</v>
@@ -16986,7 +17197,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>9820</v>
       </c>
@@ -16999,10 +17210,11 @@
       </c>
       <c r="D89">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E89">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E89" s="17">
+        <f>IF(C89="U2",Units!$D$3,IF(C89="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -17012,22 +17224,22 @@
       </c>
       <c r="H89">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I89">
         <f t="shared" si="7"/>
-        <v>431.09279999999984</v>
+        <v>433.25671679999982</v>
       </c>
       <c r="J89">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K89">
         <v>500</v>
       </c>
       <c r="L89">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M89">
         <v>-1.3333333333333263E-4</v>
@@ -17054,7 +17266,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>9821</v>
       </c>
@@ -17067,10 +17279,11 @@
       </c>
       <c r="D90">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E90">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E90" s="17">
+        <f>IF(C90="U2",Units!$D$3,IF(C90="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -17080,22 +17293,22 @@
       </c>
       <c r="H90">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I90">
         <f t="shared" si="7"/>
-        <v>431.82719999999978</v>
+        <v>352.79999999999961</v>
       </c>
       <c r="J90">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K90">
         <v>500</v>
       </c>
       <c r="L90">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M90">
         <v>-1.3333333333333263E-4</v>
@@ -17122,7 +17335,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9822</v>
       </c>
@@ -17135,10 +17348,11 @@
       </c>
       <c r="D91">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E91">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E91" s="17">
+        <f>IF(C91="U2",Units!$D$3,IF(C91="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -17148,22 +17362,22 @@
       </c>
       <c r="H91">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I91">
         <f t="shared" si="7"/>
-        <v>432.56159999999983</v>
+        <v>434.73288959999979</v>
       </c>
       <c r="J91">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K91">
         <v>500</v>
       </c>
       <c r="L91">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M91">
         <v>-1.3333333333333263E-4</v>
@@ -17190,7 +17404,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9823</v>
       </c>
@@ -17203,10 +17417,11 @@
       </c>
       <c r="D92">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E92">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E92" s="17">
+        <f>IF(C92="U2",Units!$D$3,IF(C92="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -17216,22 +17431,22 @@
       </c>
       <c r="H92">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I92">
         <f t="shared" si="7"/>
-        <v>433.29599999999976</v>
+        <v>435.47097599999978</v>
       </c>
       <c r="J92">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K92">
         <v>500</v>
       </c>
       <c r="L92">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M92">
         <v>-1.3333333333333263E-4</v>
@@ -17258,7 +17473,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9824</v>
       </c>
@@ -17271,10 +17486,11 @@
       </c>
       <c r="D93">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E93">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E93" s="17">
+        <f>IF(C93="U2",Units!$D$3,IF(C93="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -17284,22 +17500,22 @@
       </c>
       <c r="H93">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I93">
         <f t="shared" si="7"/>
-        <v>434.03039999999982</v>
+        <v>436.20906239999982</v>
       </c>
       <c r="J93">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K93">
         <v>500</v>
       </c>
       <c r="L93">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M93">
         <v>-1.3333333333333263E-4</v>
@@ -17326,7 +17542,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9825</v>
       </c>
@@ -17339,10 +17555,11 @@
       </c>
       <c r="D94">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E94">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E94" s="17">
+        <f>IF(C94="U2",Units!$D$3,IF(C94="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -17352,22 +17569,22 @@
       </c>
       <c r="H94">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I94">
         <f t="shared" si="7"/>
-        <v>434.76479999999981</v>
+        <v>436.94714879999981</v>
       </c>
       <c r="J94">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K94">
         <v>500</v>
       </c>
       <c r="L94">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M94">
         <v>-1.3333333333333263E-4</v>
@@ -17394,7 +17611,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9826</v>
       </c>
@@ -17407,10 +17624,11 @@
       </c>
       <c r="D95">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E95">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E95" s="17">
+        <f>IF(C95="U2",Units!$D$3,IF(C95="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -17420,22 +17638,22 @@
       </c>
       <c r="H95">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I95">
         <f t="shared" si="7"/>
-        <v>435.4991999999998</v>
+        <v>437.68523519999979</v>
       </c>
       <c r="J95">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K95">
         <v>500</v>
       </c>
       <c r="L95">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M95">
         <v>-1.3333333333333263E-4</v>
@@ -17462,7 +17680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9827</v>
       </c>
@@ -17475,10 +17693,11 @@
       </c>
       <c r="D96">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E96">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E96" s="17">
+        <f>IF(C96="U2",Units!$D$3,IF(C96="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -17488,22 +17707,22 @@
       </c>
       <c r="H96">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I96">
         <f t="shared" si="7"/>
-        <v>436.2335999999998</v>
+        <v>438.42332159999978</v>
       </c>
       <c r="J96">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K96">
         <v>500</v>
       </c>
       <c r="L96">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M96">
         <v>-1.3333333333333263E-4</v>
@@ -17530,7 +17749,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9828</v>
       </c>
@@ -17540,10 +17759,11 @@
       </c>
       <c r="D97">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E97">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E97" s="17">
+        <f>IF(C97="U2",Units!$D$3,IF(C97="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -17553,22 +17773,22 @@
       </c>
       <c r="H97">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I97">
         <f t="shared" si="7"/>
-        <v>436.96799999999979</v>
+        <v>439.16140799999982</v>
       </c>
       <c r="J97">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K97">
         <v>500</v>
       </c>
       <c r="L97">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M97">
         <v>-1.3333333333333263E-4</v>
@@ -17595,7 +17815,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9829</v>
       </c>
@@ -17608,10 +17828,11 @@
       </c>
       <c r="D98">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E98">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E98" s="17">
+        <f>IF(C98="U2",Units!$D$3,IF(C98="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -17621,22 +17842,22 @@
       </c>
       <c r="H98">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I98">
         <f t="shared" si="7"/>
-        <v>437.70239999999978</v>
+        <v>439.89949439999981</v>
       </c>
       <c r="J98">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K98">
         <v>500</v>
       </c>
       <c r="L98">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M98">
         <v>-1.3333333333333263E-4</v>
@@ -17663,7 +17884,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9830</v>
       </c>
@@ -17676,10 +17897,11 @@
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E99">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E99" s="17">
+        <f>IF(C99="U2",Units!$D$3,IF(C99="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -17689,22 +17911,22 @@
       </c>
       <c r="H99">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I99">
         <f t="shared" si="7"/>
-        <v>438.43679999999978</v>
+        <v>440.6375807999998</v>
       </c>
       <c r="J99">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K99">
         <v>500</v>
       </c>
       <c r="L99">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M99">
         <v>-1.3333333333333263E-4</v>
@@ -17731,7 +17953,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9831</v>
       </c>
@@ -17744,10 +17966,11 @@
       </c>
       <c r="D100">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E100">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E100" s="17">
+        <f>IF(C100="U2",Units!$D$3,IF(C100="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -17757,22 +17980,22 @@
       </c>
       <c r="H100">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I100">
         <f t="shared" si="7"/>
-        <v>439.17119999999977</v>
+        <v>441.37566719999978</v>
       </c>
       <c r="J100">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K100">
         <v>500</v>
       </c>
       <c r="L100">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M100">
         <v>-1.3333333333333263E-4</v>
@@ -17799,7 +18022,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9832</v>
       </c>
@@ -17812,10 +18035,11 @@
       </c>
       <c r="D101">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E101">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E101" s="17">
+        <f>IF(C101="U2",Units!$D$3,IF(C101="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -17825,22 +18049,22 @@
       </c>
       <c r="H101">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I101">
         <f t="shared" si="7"/>
-        <v>439.90559999999982</v>
+        <v>442.11375359999982</v>
       </c>
       <c r="J101">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K101">
         <v>500</v>
       </c>
       <c r="L101">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M101">
         <v>-1.3333333333333263E-4</v>
@@ -17867,7 +18091,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9833</v>
       </c>
@@ -17877,10 +18101,11 @@
       </c>
       <c r="D102">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E102">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E102" s="17">
+        <f>IF(C102="U2",Units!$D$3,IF(C102="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -17890,22 +18115,22 @@
       </c>
       <c r="H102">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I102">
         <f t="shared" si="7"/>
-        <v>440.63999999999976</v>
+        <v>442.85183999999981</v>
       </c>
       <c r="J102">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K102">
         <v>500</v>
       </c>
       <c r="L102">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M102">
         <v>-1.3333333333333263E-4</v>
@@ -17932,7 +18157,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>238</v>
       </c>
@@ -17945,10 +18170,11 @@
       </c>
       <c r="D103">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E103">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E103" s="17">
+        <f>IF(C103="U2",Units!$D$3,IF(C103="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -17958,22 +18184,22 @@
       </c>
       <c r="H103">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I103">
         <f t="shared" si="7"/>
-        <v>441.37439999999981</v>
+        <v>443.5899263999998</v>
       </c>
       <c r="J103">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K103">
         <v>500</v>
       </c>
       <c r="L103">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M103">
         <v>-1.3333333333333263E-4</v>
@@ -18000,7 +18226,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -18013,10 +18239,11 @@
       </c>
       <c r="D104">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E104">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E104" s="17">
+        <f>IF(C104="U2",Units!$D$3,IF(C104="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -18026,22 +18253,22 @@
       </c>
       <c r="H104">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I104">
         <f t="shared" si="7"/>
-        <v>442.10879999999975</v>
+        <v>444.32801279999978</v>
       </c>
       <c r="J104">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K104">
         <v>500</v>
       </c>
       <c r="L104">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M104">
         <v>-1.3333333333333263E-4</v>
@@ -18068,7 +18295,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9836</v>
       </c>
@@ -18081,10 +18308,11 @@
       </c>
       <c r="D105">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E105">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E105" s="17">
+        <f>IF(C105="U2",Units!$D$3,IF(C105="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -18094,22 +18322,22 @@
       </c>
       <c r="H105">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I105">
         <f t="shared" si="7"/>
-        <v>442.8431999999998</v>
+        <v>445.06609919999983</v>
       </c>
       <c r="J105">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K105">
         <v>500</v>
       </c>
       <c r="L105">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M105">
         <v>-1.3333333333333263E-4</v>
@@ -18136,7 +18364,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9837</v>
       </c>
@@ -18149,10 +18377,11 @@
       </c>
       <c r="D106">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E106">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E106" s="17">
+        <f>IF(C106="U2",Units!$D$3,IF(C106="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -18162,22 +18391,22 @@
       </c>
       <c r="H106">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I106">
         <f t="shared" si="7"/>
-        <v>443.57759999999979</v>
+        <v>445.80418559999981</v>
       </c>
       <c r="J106">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K106">
         <v>500</v>
       </c>
       <c r="L106">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M106">
         <v>-1.3333333333333263E-4</v>
@@ -18204,7 +18433,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>9838</v>
       </c>
@@ -18217,10 +18446,11 @@
       </c>
       <c r="D107">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E107">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E107" s="17">
+        <f>IF(C107="U2",Units!$D$3,IF(C107="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -18230,22 +18460,22 @@
       </c>
       <c r="H107">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I107">
         <f t="shared" si="7"/>
-        <v>444.31199999999978</v>
+        <v>362.9999999999996</v>
       </c>
       <c r="J107">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K107">
         <v>500</v>
       </c>
       <c r="L107">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M107">
         <v>-1.3333333333333263E-4</v>
@@ -18272,7 +18502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>9839</v>
       </c>
@@ -18285,10 +18515,11 @@
       </c>
       <c r="D108">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E108">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E108" s="17">
+        <f>IF(C108="U2",Units!$D$3,IF(C108="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -18298,22 +18529,22 @@
       </c>
       <c r="H108">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I108">
         <f t="shared" si="7"/>
-        <v>445.04639999999978</v>
+        <v>447.28035839999978</v>
       </c>
       <c r="J108">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K108">
         <v>500</v>
       </c>
       <c r="L108">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M108">
         <v>-1.3333333333333263E-4</v>
@@ -18340,7 +18571,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>9840</v>
       </c>
@@ -18353,10 +18584,11 @@
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E109">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E109" s="17">
+        <f>IF(C109="U2",Units!$D$3,IF(C109="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -18366,22 +18598,22 @@
       </c>
       <c r="H109">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I109">
         <f t="shared" si="7"/>
-        <v>445.78079999999977</v>
+        <v>364.19999999999959</v>
       </c>
       <c r="J109">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K109">
         <v>500</v>
       </c>
       <c r="L109">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M109">
         <v>-1.3333333333333263E-4</v>
@@ -18408,7 +18640,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>9841</v>
       </c>
@@ -18421,10 +18653,11 @@
       </c>
       <c r="D110">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E110">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E110" s="17">
+        <f>IF(C110="U2",Units!$D$3,IF(C110="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -18434,22 +18667,22 @@
       </c>
       <c r="H110">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I110">
         <f t="shared" si="7"/>
-        <v>446.51519999999977</v>
+        <v>448.75653119999981</v>
       </c>
       <c r="J110">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K110">
         <v>500</v>
       </c>
       <c r="L110">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M110">
         <v>-1.3333333333333263E-4</v>
@@ -18476,7 +18709,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>249</v>
       </c>
@@ -18489,10 +18722,11 @@
       </c>
       <c r="D111">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E111">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E111" s="17">
+        <f>IF(C111="U2",Units!$D$3,IF(C111="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -18502,22 +18736,22 @@
       </c>
       <c r="H111">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I111">
         <f t="shared" si="7"/>
-        <v>447.24959999999982</v>
+        <v>365.39999999999958</v>
       </c>
       <c r="J111">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K111">
         <v>500</v>
       </c>
       <c r="L111">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M111">
         <v>-1.3333333333333263E-4</v>
@@ -18544,7 +18778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>9843</v>
       </c>
@@ -18557,10 +18791,11 @@
       </c>
       <c r="D112">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E112">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E112" s="17">
+        <f>IF(C112="U2",Units!$D$3,IF(C112="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>150</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -18570,22 +18805,22 @@
       </c>
       <c r="H112">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>599.99999999999932</v>
       </c>
       <c r="I112">
         <f t="shared" si="7"/>
-        <v>447.98399999999975</v>
+        <v>365.9999999999996</v>
       </c>
       <c r="J112">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>348.75</v>
       </c>
       <c r="K112">
         <v>500</v>
       </c>
       <c r="L112">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>151.25</v>
       </c>
       <c r="M112">
         <v>-1.3333333333333263E-4</v>
@@ -18612,7 +18847,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>250</v>
       </c>
@@ -18625,10 +18860,11 @@
       </c>
       <c r="D113">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E113">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E113" s="17">
+        <f>IF(C113="U2",Units!$D$3,IF(C113="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -18638,22 +18874,22 @@
       </c>
       <c r="H113">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I113">
         <f t="shared" si="7"/>
-        <v>448.7183999999998</v>
+        <v>450.97079039999983</v>
       </c>
       <c r="J113">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K113">
         <v>500</v>
       </c>
       <c r="L113">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M113">
         <v>-1.3333333333333263E-4</v>
@@ -18680,7 +18916,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>9845</v>
       </c>
@@ -18693,10 +18929,11 @@
       </c>
       <c r="D114">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E114">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E114" s="17">
+        <f>IF(C114="U2",Units!$D$3,IF(C114="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -18706,22 +18943,22 @@
       </c>
       <c r="H114">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I114">
         <f t="shared" si="7"/>
-        <v>449.45279999999974</v>
+        <v>451.70887679999981</v>
       </c>
       <c r="J114">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K114">
         <v>500</v>
       </c>
       <c r="L114">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M114">
         <v>-1.3333333333333263E-4</v>
@@ -18748,7 +18985,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>9846</v>
       </c>
@@ -18758,10 +18995,11 @@
       </c>
       <c r="D115">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E115">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E115" s="17">
+        <f>IF(C115="U2",Units!$D$3,IF(C115="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -18771,22 +19009,22 @@
       </c>
       <c r="H115">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I115">
         <f t="shared" si="7"/>
-        <v>450.18719999999979</v>
+        <v>452.4469631999998</v>
       </c>
       <c r="J115">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K115">
         <v>500</v>
       </c>
       <c r="L115">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M115">
         <v>-1.3333333333333263E-4</v>
@@ -18813,7 +19051,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>9847</v>
       </c>
@@ -18825,11 +19063,12 @@
         <v>KPC</v>
       </c>
       <c r="D116">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E116">
-        <v>80</v>
+        <f>E116+F116</f>
+        <v>78</v>
+      </c>
+      <c r="E116" s="17">
+        <f>IF(C116="U2",Units!$D$3,IF(C116="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -18839,22 +19078,22 @@
       </c>
       <c r="H116">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I116">
         <f t="shared" si="7"/>
-        <v>450.92159999999978</v>
+        <v>453.18504959999979</v>
       </c>
       <c r="J116">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K116">
         <v>500</v>
       </c>
       <c r="L116">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M116">
         <v>-1.3333333333333263E-4</v>
@@ -18881,7 +19120,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>9848</v>
       </c>
@@ -18891,10 +19130,11 @@
       </c>
       <c r="D117">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E117">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E117" s="17">
+        <f>IF(C117="U2",Units!$D$3,IF(C117="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -18904,22 +19144,22 @@
       </c>
       <c r="H117">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I117">
         <f t="shared" si="7"/>
-        <v>451.65599999999978</v>
+        <v>453.92313599999983</v>
       </c>
       <c r="J117">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K117">
         <v>500</v>
       </c>
       <c r="L117">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M117">
         <v>-1.3333333333333263E-4</v>
@@ -18946,7 +19186,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9849</v>
       </c>
@@ -18956,10 +19196,11 @@
       </c>
       <c r="D118">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E118">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E118" s="17">
+        <f>IF(C118="U2",Units!$D$3,IF(C118="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -18969,22 +19210,22 @@
       </c>
       <c r="H118">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I118">
         <f t="shared" si="7"/>
-        <v>452.39039999999977</v>
+        <v>454.66122239999982</v>
       </c>
       <c r="J118">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K118">
         <v>500</v>
       </c>
       <c r="L118">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M118">
         <v>-1.3333333333333263E-4</v>
@@ -19011,7 +19252,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>9850</v>
       </c>
@@ -19024,10 +19265,11 @@
       </c>
       <c r="D119">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E119">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E119" s="17">
+        <f>IF(C119="U2",Units!$D$3,IF(C119="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -19037,22 +19279,22 @@
       </c>
       <c r="H119">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I119">
         <f t="shared" si="7"/>
-        <v>453.12479999999977</v>
+        <v>455.3993087999998</v>
       </c>
       <c r="J119">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K119">
         <v>500</v>
       </c>
       <c r="L119">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M119">
         <v>-1.3333333333333263E-4</v>
@@ -19079,7 +19321,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>9851</v>
       </c>
@@ -19092,10 +19334,11 @@
       </c>
       <c r="D120">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E120">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E120" s="17">
+        <f>IF(C120="U2",Units!$D$3,IF(C120="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -19105,22 +19348,22 @@
       </c>
       <c r="H120">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I120">
         <f t="shared" si="7"/>
-        <v>453.85919999999976</v>
+        <v>456.13739519999979</v>
       </c>
       <c r="J120">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K120">
         <v>500</v>
       </c>
       <c r="L120">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M120">
         <v>-1.3333333333333263E-4</v>
@@ -19147,7 +19390,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>9852</v>
       </c>
@@ -19160,10 +19403,11 @@
       </c>
       <c r="D121">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E121">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E121" s="17">
+        <f>IF(C121="U2",Units!$D$3,IF(C121="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -19173,22 +19417,22 @@
       </c>
       <c r="H121">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I121">
         <f t="shared" si="7"/>
-        <v>454.59359999999981</v>
+        <v>456.87548159999983</v>
       </c>
       <c r="J121">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K121">
         <v>500</v>
       </c>
       <c r="L121">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M121">
         <v>-1.3333333333333263E-4</v>
@@ -19215,7 +19459,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>9853</v>
       </c>
@@ -19228,10 +19472,11 @@
       </c>
       <c r="D122">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E122">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E122" s="17">
+        <f>IF(C122="U2",Units!$D$3,IF(C122="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -19241,22 +19486,22 @@
       </c>
       <c r="H122">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I122">
         <f t="shared" si="7"/>
-        <v>455.32799999999975</v>
+        <v>457.61356799999982</v>
       </c>
       <c r="J122">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K122">
         <v>500</v>
       </c>
       <c r="L122">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M122">
         <v>-1.3333333333333263E-4</v>
@@ -19283,7 +19528,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -19296,10 +19541,11 @@
       </c>
       <c r="D123">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E123">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E123" s="17">
+        <f>IF(C123="U2",Units!$D$3,IF(C123="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -19309,22 +19555,22 @@
       </c>
       <c r="H123">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I123">
         <f t="shared" si="7"/>
-        <v>456.0623999999998</v>
+        <v>458.3516543999998</v>
       </c>
       <c r="J123">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K123">
         <v>500</v>
       </c>
       <c r="L123">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M123">
         <v>-1.3333333333333263E-4</v>
@@ -19351,7 +19597,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>261</v>
       </c>
@@ -19361,10 +19607,11 @@
       </c>
       <c r="D124">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="E124">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E124" s="17">
+        <f>IF(C124="U2",Units!$D$3,IF(C124="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -19374,22 +19621,22 @@
       </c>
       <c r="H124">
         <f t="shared" si="6"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I124">
         <f t="shared" si="7"/>
-        <v>456.79679999999973</v>
+        <v>459.08974079999979</v>
       </c>
       <c r="J124">
         <f t="shared" si="8"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K124">
         <v>500</v>
       </c>
       <c r="L124">
         <f t="shared" si="9"/>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M124">
         <v>-1.3333333333333263E-4</v>
@@ -19416,7 +19663,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>9854</v>
       </c>
@@ -19429,10 +19676,11 @@
       </c>
       <c r="D125">
         <f t="shared" ref="D125" si="10">E125+F125</f>
-        <v>80</v>
-      </c>
-      <c r="E125">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E125" s="17">
+        <f>IF(C125="U2",Units!$D$3,IF(C125="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -19442,22 +19690,22 @@
       </c>
       <c r="H125">
         <f t="shared" ref="H125" si="11">IF(M125*D125^3+N125*D125^2+O125*D125+P125&lt;0,0,M125*D125^3+N125*D125^2+O125*D125+P125)</f>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I125">
         <f t="shared" ref="I125" si="12">H125*G125/1000</f>
-        <v>455.32799999999975</v>
+        <v>457.61356799999982</v>
       </c>
       <c r="J125">
         <f t="shared" ref="J125" si="13">IF(Q125*D125^3+R125*D125^2+S125*D125+T125&lt;0,0,Q125*D125^3+R125*D125^2+S125*D125+T125)</f>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K125">
         <v>500</v>
       </c>
       <c r="L125">
         <f t="shared" ref="L125" si="14">K125-J125</f>
-        <v>177.92000000000002</v>
+        <v>178.69351999999998</v>
       </c>
       <c r="M125">
         <v>-1.3333333333333263E-4</v>
@@ -19484,7 +19732,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>9855</v>
       </c>
@@ -19497,10 +19745,11 @@
       </c>
       <c r="D126">
         <f t="shared" ref="D126:D127" si="15">E126+F126</f>
-        <v>80</v>
-      </c>
-      <c r="E126">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E126" s="17">
+        <f>IF(C126="U2",Units!$D$3,IF(C126="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -19510,22 +19759,22 @@
       </c>
       <c r="H126">
         <f t="shared" ref="H126:H127" si="16">IF(M126*D126^3+N126*D126^2+O126*D126+P126&lt;0,0,M126*D126^3+N126*D126^2+O126*D126+P126)</f>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I126">
         <f t="shared" ref="I126:I127" si="17">H126*G126/1000</f>
-        <v>455.32799999999975</v>
+        <v>457.61356799999982</v>
       </c>
       <c r="J126">
         <f t="shared" ref="J126:J127" si="18">IF(Q126*D126^3+R126*D126^2+S126*D126+T126&lt;0,0,Q126*D126^3+R126*D126^2+S126*D126+T126)</f>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K126">
         <v>501</v>
       </c>
       <c r="L126">
         <f t="shared" ref="L126:L127" si="19">K126-J126</f>
-        <v>178.92000000000002</v>
+        <v>179.69351999999998</v>
       </c>
       <c r="M126">
         <v>-1.3333333333333263E-4</v>
@@ -19552,7 +19801,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>9856</v>
       </c>
@@ -19565,10 +19814,11 @@
       </c>
       <c r="D127">
         <f t="shared" si="15"/>
-        <v>80</v>
-      </c>
-      <c r="E127">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E127" s="17">
+        <f>IF(C127="U2",Units!$D$3,IF(C127="KPC",Units!$D$2,Units!$D$4))</f>
+        <v>78</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -19578,22 +19828,22 @@
       </c>
       <c r="H127">
         <f t="shared" si="16"/>
-        <v>734.39999999999964</v>
+        <v>738.08639999999968</v>
       </c>
       <c r="I127">
         <f t="shared" si="17"/>
-        <v>455.32799999999975</v>
+        <v>457.61356799999982</v>
       </c>
       <c r="J127">
         <f t="shared" si="18"/>
-        <v>322.08</v>
+        <v>321.30648000000002</v>
       </c>
       <c r="K127">
         <v>502</v>
       </c>
       <c r="L127">
         <f t="shared" si="19"/>
-        <v>179.92000000000002</v>
+        <v>180.69351999999998</v>
       </c>
       <c r="M127">
         <v>-1.3333333333333263E-4</v>
@@ -19632,14 +19882,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -19665,11 +19915,11 @@
       </c>
       <c r="B2" s="13">
         <f>SUMIF(Wells!$C$2:$C$200,A2,Wells!$H$2:$H$200)</f>
-        <v>53611.200000000063</v>
+        <v>53880.307200000003</v>
       </c>
       <c r="C2" s="13">
         <f>SUMIF(Wells!$C$2:$C$200,A2,Wells!$I$2:$I$200)</f>
-        <v>31131.950399999987</v>
+        <v>31288.220582399987</v>
       </c>
       <c r="D2" s="13">
         <v>78</v>
@@ -19685,11 +19935,11 @@
       </c>
       <c r="B3" s="13">
         <f>SUMIF(Wells!$C$2:$C$200,A3,Wells!$H$2:$H$200)</f>
-        <v>21263.199999999997</v>
+        <v>17399.999999999989</v>
       </c>
       <c r="C3" s="13">
         <f>SUMIF(Wells!$C$2:$C$200,A3,Wells!$I$2:$I$200)</f>
-        <v>11560.615999999996</v>
+        <v>9458.9999999999891</v>
       </c>
       <c r="D3" s="13">
         <v>150</v>
@@ -19705,11 +19955,11 @@
       </c>
       <c r="B4" s="13">
         <f>SUMIF(Wells!$C$2:$C$200,A4,Wells!$H$2:$H$200)</f>
-        <v>15601.599999999991</v>
+        <v>15749.999999999996</v>
       </c>
       <c r="C4" s="13">
         <f>SUMIF(Wells!$C$2:$C$200,A4,Wells!$I$2:$I$200)</f>
-        <v>8257.9807999999939</v>
+        <v>8338.9687499999982</v>
       </c>
       <c r="D4" s="13">
         <v>125</v>
@@ -19725,11 +19975,11 @@
       </c>
       <c r="B5" s="14">
         <f>SUM(B2:B4)</f>
-        <v>90476.000000000044</v>
+        <v>87030.307199999996</v>
       </c>
       <c r="C5" s="14">
         <f>SUM(C2:C4)</f>
-        <v>50950.547199999972</v>
+        <v>49086.189332399976</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5">
@@ -19745,15 +19995,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="B7:E7"/>
+      <selection activeCell="E16" activeCellId="2" sqref="E10:F10 E13:F13 E16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>250</v>
       </c>
@@ -19761,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>200</v>
       </c>
@@ -19769,7 +20019,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>
@@ -19777,7 +20027,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>50</v>
       </c>
@@ -19785,7 +20035,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="array" ref="B7:E7">LINEST(C2:C5,B2:B5^{1,2,3})</f>
         <v>-1.3333333333333263E-4</v>
@@ -19798,10 +20048,401 @@
       </c>
       <c r="E7">
         <v>999.99999999999886</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>250</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="array" ref="E10:F10">LINEST(C10:C11,B10:B11)</f>
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>250</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <f t="array" ref="E13:F13">LINEST(C13:C14,B13:B14)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="F13" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
+        <v>300</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="17">
+        <v>250</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="array" ref="E16:F16">LINEST(C16:C17,B16:B17)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="F16" s="17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="61">
+        <f>B3*B22+C22</f>
+        <v>295.14484467166005</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61">
+        <f>B2</f>
+        <v>295.14484467166005</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="64">
+        <f>E2+E6+E10</f>
+        <v>595.14484467166005</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="64">
+        <f>H2</f>
+        <v>595.14484467166005</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="N2" s="64">
+        <f>K2</f>
+        <v>595.14484467166005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="67">
+        <v>102.42757766416999</v>
+      </c>
+      <c r="C3" s="67">
+        <f>D3+E3</f>
+        <v>102.4271726700749</v>
+      </c>
+      <c r="D3" s="69">
+        <v>15</v>
+      </c>
+      <c r="E3" s="62">
+        <f>E2*C18+H3</f>
+        <v>87.427172670074896</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="H3" s="66">
+        <f>H2*C17+K3</f>
+        <v>85.951448446716597</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="K3" s="66">
+        <f>K2*C16+N3</f>
+        <v>82.975724223358299</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="N3" s="68">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>9815</v>
+      </c>
+      <c r="E5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="61">
+        <v>100</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61">
+        <f>B6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="67">
+        <v>86.451718442779992</v>
+      </c>
+      <c r="C7" s="67">
+        <f>D7+E7</f>
+        <v>86.451448446716597</v>
+      </c>
+      <c r="D7" s="69">
+        <v>0</v>
+      </c>
+      <c r="E7" s="62">
+        <f>E6*C19+H3</f>
+        <v>86.451448446716597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>430</v>
+      </c>
+      <c r="E9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="61">
+        <v>200</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61">
+        <f>B10</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="67">
+        <v>86.951718442779992</v>
+      </c>
+      <c r="C11" s="67">
+        <f>D11+E11</f>
+        <v>86.951448446716597</v>
+      </c>
+      <c r="D11" s="69">
+        <v>0</v>
+      </c>
+      <c r="E11" s="62">
+        <f>E10*C20+H3</f>
+        <v>86.951448446716597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>-2</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="17">
+        <v>-1.2</v>
+      </c>
+      <c r="C23" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="17">
+        <v>-1.6</v>
+      </c>
+      <c r="C24" s="17">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>